--- a/src/assets/request.xlsx
+++ b/src/assets/request.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\@Develop\RealibilityControl\reliability\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A13B2A-B446-4828-8192-95C8FD8D1D88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FD87F7-0DBF-41BD-86D7-D7C96817BA41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="1" xr2:uid="{C95BEADF-93CF-4A68-ABC9-21338E5E548A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{C95BEADF-93CF-4A68-ABC9-21338E5E548A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>Control No.</t>
   </si>
@@ -176,147 +174,12 @@
   <si>
     <t>Inspection</t>
   </si>
-  <si>
-    <t>KTC-22-03-005-003096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Over All Plan Reliability Test </t>
-  </si>
-  <si>
-    <t>Model No. :</t>
-  </si>
-  <si>
-    <t>Revision no. :</t>
-  </si>
-  <si>
-    <t>Model Name :</t>
-  </si>
-  <si>
-    <t>T-57632GD018HU-T- AIN</t>
-  </si>
-  <si>
-    <t>Requestor  :</t>
-  </si>
-  <si>
-    <t>Ms.Chutipa</t>
-  </si>
-  <si>
-    <t>Inspection Result</t>
-  </si>
-  <si>
-    <t>Sample Receiver</t>
-  </si>
-  <si>
-    <t>Due Date</t>
-  </si>
-  <si>
-    <t>Remark</t>
-  </si>
-  <si>
-    <t>Inspection of Initial</t>
-  </si>
-  <si>
-    <t>Input to Chamber</t>
-  </si>
-  <si>
-    <t>240hrs</t>
-  </si>
-  <si>
-    <t>Inspection after 240hrs</t>
-  </si>
-  <si>
-    <t>500hrs</t>
-  </si>
-  <si>
-    <t>Inspection after 500hrs</t>
-  </si>
-  <si>
-    <t>1000hrs</t>
-  </si>
-  <si>
-    <t>Inspection after 1000hrs</t>
-  </si>
-  <si>
-    <t>1500hrs</t>
-  </si>
-  <si>
-    <t>Inspection after 1500hrs</t>
-  </si>
-  <si>
-    <t>2000hrs</t>
-  </si>
-  <si>
-    <t>Inspection after 2000hrs</t>
-  </si>
-  <si>
-    <t>High temperature : 105±2°C</t>
-  </si>
-  <si>
-    <t>9-10 Mar-2022</t>
-  </si>
-  <si>
-    <t>22-23Mar-2022</t>
-  </si>
-  <si>
-    <t>5-6 Apr-2022</t>
-  </si>
-  <si>
-    <t>29- Apr,4-May-2022</t>
-  </si>
-  <si>
-    <t>27-28 May-2022</t>
-  </si>
-  <si>
-    <t>21-22 Jun-2022</t>
-  </si>
-  <si>
-    <t>Low temperature : -40±2°C</t>
-  </si>
-  <si>
-    <t>Damp proof test : 65±2°C，93%RH</t>
-  </si>
-  <si>
-    <t>Damp proof test : 70±2°C，55%RH</t>
-  </si>
-  <si>
-    <t>Heat shock test : -40±2°C ↔ 105±2°C (30min each)</t>
-  </si>
-  <si>
-    <t>Final report</t>
-  </si>
-  <si>
-    <t>History Reliability Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">History Reliability Test Request </t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>Revision No.</t>
-  </si>
-  <si>
-    <t>Revise Content</t>
-  </si>
-  <si>
-    <t>Purpose / Reason</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Revise by</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-  </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -451,59 +314,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="22"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="28"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="28"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="22"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -525,7 +335,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -1137,136 +947,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1274,7 +954,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="263">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1554,6 +1234,162 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1586,399 +1422,6 @@
     </xf>
     <xf numFmtId="15" fontId="8" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="32" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1998,478 +1441,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>4330</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>2847</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>85022</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{074055A9-C7C0-4EC2-AB1B-D8840E79F508}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="22530955" y="24374475"/>
-          <a:ext cx="6637442" cy="1942397"/>
-          <a:chOff x="6643687" y="13870304"/>
-          <a:chExt cx="3142015" cy="939550"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="3" name="Group 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B81EDB33-2E8B-4C33-A8AA-E553292D1329}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="6643687" y="13870304"/>
-            <a:ext cx="3142015" cy="939550"/>
-            <a:chOff x="6643687" y="13870304"/>
-            <a:chExt cx="3142015" cy="939550"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="Text Box 11">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75B6C886-25ED-4767-91C1-1D188BE66355}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1">
-              <a:spLocks noChangeArrowheads="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="6643687" y="13870304"/>
-              <a:ext cx="1571272" cy="188596"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial"/>
-                  <a:cs typeface="Arial"/>
-                </a:rPr>
-                <a:t>Review by</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="Rectangle 12">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF609F73-39C4-4B8C-B41A-7666289C7BC8}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr>
-              <a:spLocks noChangeArrowheads="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="6643687" y="14058900"/>
-              <a:ext cx="1571272" cy="747718"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="Text Box 11">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EBD6B58-E76D-430D-A06D-9CF4F88ACEEE}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1">
-              <a:spLocks noChangeArrowheads="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="6643687" y="14582776"/>
-              <a:ext cx="1571272" cy="227078"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial"/>
-                  <a:cs typeface="Arial"/>
-                </a:rPr>
-                <a:t>Date : 11-Mar-2022</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="Text Box 11">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8EFCCE1-F7C6-4873-8EA6-A05B28BDC207}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1">
-              <a:spLocks noChangeArrowheads="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="8214430" y="13870304"/>
-              <a:ext cx="1571272" cy="188596"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial"/>
-                  <a:cs typeface="Arial"/>
-                </a:rPr>
-                <a:t>Approver by</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="Rectangle 12">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF44197D-466C-49D0-9A35-856F3220C7B5}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr>
-              <a:spLocks noChangeArrowheads="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="8214430" y="14058900"/>
-              <a:ext cx="1571272" cy="747718"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Text Box 11">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3772B4C7-BD2C-401C-B972-15C6B62E8D8F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="8214430" y="14582776"/>
-            <a:ext cx="1571272" cy="227078"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-            </a:solidFill>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-                <a:cs typeface="Arial"/>
-              </a:rPr>
-              <a:t>Date : 11-Mar-2022</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>960920</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>121228</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>651906</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>173800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Text Box 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6674540-38B2-49FB-B821-ADC998BBB5B7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="25887845" y="23190778"/>
-          <a:ext cx="2091286" cy="795522"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>Ms.Phanutchakorn S.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>606136</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>323365</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>1110839</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>56347</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Text Box 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{822AD47C-FC45-42AA-82BC-A067A20F5D90}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="23132761" y="23392915"/>
-          <a:ext cx="1704853" cy="475932"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>Mrs.Sangjan J.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2771,8 +1742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5DEC55D-4E64-4A5D-B2A7-8830A7A57A73}">
   <dimension ref="A1:W560"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K66" sqref="K66"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
@@ -2796,38 +1767,38 @@
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="127" t="s">
+      <c r="L1" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="151"/>
       <c r="S1" s="74"/>
       <c r="T1" s="74"/>
       <c r="U1" s="74"/>
       <c r="V1" s="74"/>
     </row>
     <row r="2" spans="1:22" s="76" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
       <c r="P2" s="100" t="s">
         <v>3</v>
       </c>
@@ -2841,7 +1812,7 @@
       <c r="V2" s="72"/>
     </row>
     <row r="3" spans="1:22" s="78" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="103" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2853,10 +1824,10 @@
       <c r="F3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
       <c r="K3" s="7"/>
       <c r="L3"/>
       <c r="M3"/>
@@ -2870,7 +1841,7 @@
       <c r="U3" s="77"/>
     </row>
     <row r="4" spans="1:22" s="78" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="162"/>
+      <c r="A4" s="104"/>
       <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
@@ -2880,10 +1851,10 @@
       <c r="F4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
       <c r="K4" s="12"/>
       <c r="L4"/>
       <c r="M4"/>
@@ -2897,7 +1868,7 @@
       <c r="U4" s="77"/>
     </row>
     <row r="5" spans="1:22" s="78" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="162"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
@@ -2907,10 +1878,10 @@
       <c r="F5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
       <c r="K5" s="12"/>
       <c r="L5"/>
       <c r="M5"/>
@@ -2924,7 +1895,7 @@
       <c r="U5" s="77"/>
     </row>
     <row r="6" spans="1:22" s="78" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="162"/>
+      <c r="A6" s="104"/>
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
@@ -2934,10 +1905,10 @@
       <c r="F6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="152"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="152"/>
       <c r="K6" s="14"/>
       <c r="L6"/>
       <c r="M6"/>
@@ -2951,7 +1922,7 @@
       <c r="U6" s="77"/>
     </row>
     <row r="7" spans="1:22" s="78" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="162"/>
+      <c r="A7" s="104"/>
       <c r="B7" s="15" t="s">
         <v>10</v>
       </c>
@@ -2961,10 +1932,10 @@
       <c r="F7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="152"/>
+      <c r="I7" s="152"/>
+      <c r="J7" s="152"/>
       <c r="K7" s="14"/>
       <c r="L7"/>
       <c r="M7"/>
@@ -2978,7 +1949,7 @@
       <c r="U7" s="77"/>
     </row>
     <row r="8" spans="1:22" s="78" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="162"/>
+      <c r="A8" s="104"/>
       <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
@@ -2988,10 +1959,10 @@
       <c r="F8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="128"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="128"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
       <c r="K8" s="14"/>
       <c r="L8"/>
       <c r="M8"/>
@@ -3005,7 +1976,7 @@
       <c r="U8" s="77"/>
     </row>
     <row r="9" spans="1:22" s="78" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="162"/>
+      <c r="A9" s="104"/>
       <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
@@ -3015,10 +1986,10 @@
       <c r="F9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="128"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="128"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="130"/>
       <c r="K9" s="12"/>
       <c r="L9"/>
       <c r="M9"/>
@@ -3032,7 +2003,7 @@
       <c r="U9" s="77"/>
     </row>
     <row r="10" spans="1:22" s="78" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="162"/>
+      <c r="A10" s="104"/>
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -3042,10 +2013,10 @@
       <c r="F10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="128"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="130"/>
       <c r="K10" s="12"/>
       <c r="L10"/>
       <c r="M10"/>
@@ -3059,7 +2030,7 @@
       <c r="U10" s="77"/>
     </row>
     <row r="11" spans="1:22" s="78" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="162"/>
+      <c r="A11" s="104"/>
       <c r="B11" s="19" t="s">
         <v>16</v>
       </c>
@@ -3069,10 +2040,10 @@
       <c r="F11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="128"/>
-      <c r="H11" s="128"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="128"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="130"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
@@ -3086,7 +2057,7 @@
       <c r="U11" s="77"/>
     </row>
     <row r="12" spans="1:22" s="79" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="162"/>
+      <c r="A12" s="104"/>
       <c r="B12" s="19" t="s">
         <v>17</v>
       </c>
@@ -3096,10 +2067,10 @@
       <c r="F12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="128"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="128"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130"/>
       <c r="K12" s="12"/>
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
@@ -3114,7 +2085,7 @@
       <c r="V12" s="78"/>
     </row>
     <row r="13" spans="1:22" s="79" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="162"/>
+      <c r="A13" s="104"/>
       <c r="B13" s="23" t="s">
         <v>18</v>
       </c>
@@ -3124,10 +2095,10 @@
       <c r="F13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="129"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="152"/>
       <c r="K13" s="21"/>
       <c r="L13" s="12"/>
       <c r="M13" s="21"/>
@@ -3142,7 +2113,7 @@
       <c r="V13" s="78"/>
     </row>
     <row r="14" spans="1:22" s="79" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="162"/>
+      <c r="A14" s="104"/>
       <c r="B14" s="19" t="s">
         <v>19</v>
       </c>
@@ -3152,10 +2123,10 @@
       <c r="F14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="129"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="129"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="152"/>
       <c r="K14" s="21"/>
       <c r="L14" s="12"/>
       <c r="M14" s="21"/>
@@ -3170,7 +2141,7 @@
       <c r="V14" s="78"/>
     </row>
     <row r="15" spans="1:22" s="79" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="162"/>
+      <c r="A15" s="104"/>
       <c r="B15" s="19" t="s">
         <v>20</v>
       </c>
@@ -3180,10 +2151,10 @@
       <c r="F15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="128"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="130"/>
       <c r="K15" s="21"/>
       <c r="L15" s="12"/>
       <c r="M15" s="21"/>
@@ -3198,7 +2169,7 @@
       <c r="V15" s="78"/>
     </row>
     <row r="16" spans="1:22" s="79" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="162"/>
+      <c r="A16" s="104"/>
       <c r="B16" s="19" t="s">
         <v>21</v>
       </c>
@@ -3208,10 +2179,10 @@
       <c r="F16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="128"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="128"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
       <c r="K16" s="21"/>
       <c r="L16" s="12"/>
       <c r="M16" s="21"/>
@@ -3226,7 +2197,7 @@
       <c r="V16" s="78"/>
     </row>
     <row r="17" spans="1:23" s="79" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="162"/>
+      <c r="A17" s="104"/>
       <c r="B17" s="19"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -3250,7 +2221,7 @@
       <c r="V17" s="78"/>
     </row>
     <row r="18" spans="1:23" s="79" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="162"/>
+      <c r="A18" s="104"/>
       <c r="B18" s="19"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -3274,7 +2245,7 @@
       <c r="V18" s="78"/>
     </row>
     <row r="19" spans="1:23" s="79" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="162"/>
+      <c r="A19" s="104"/>
       <c r="B19" s="19"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -3298,7 +2269,7 @@
       <c r="V19" s="78"/>
     </row>
     <row r="20" spans="1:23" s="79" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="162"/>
+      <c r="A20" s="104"/>
       <c r="B20" s="28" t="s">
         <v>22</v>
       </c>
@@ -3325,23 +2296,23 @@
       <c r="W20" s="81"/>
     </row>
     <row r="21" spans="1:23" s="86" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="162"/>
+      <c r="A21" s="104"/>
       <c r="B21" s="32"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="114"/>
-      <c r="N21" s="114"/>
-      <c r="O21" s="114"/>
-      <c r="P21" s="114"/>
-      <c r="Q21" s="114"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="135"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="135"/>
+      <c r="L21" s="135"/>
+      <c r="M21" s="135"/>
+      <c r="N21" s="135"/>
+      <c r="O21" s="135"/>
+      <c r="P21" s="135"/>
+      <c r="Q21" s="135"/>
       <c r="R21" s="33"/>
       <c r="S21" s="82"/>
       <c r="T21" s="83"/>
@@ -3350,23 +2321,23 @@
       <c r="W21" s="85"/>
     </row>
     <row r="22" spans="1:23" s="86" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="162"/>
+      <c r="A22" s="104"/>
       <c r="B22" s="32"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="114"/>
-      <c r="M22" s="114"/>
-      <c r="N22" s="114"/>
-      <c r="O22" s="114"/>
-      <c r="P22" s="114"/>
-      <c r="Q22" s="114"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="135"/>
+      <c r="K22" s="135"/>
+      <c r="L22" s="135"/>
+      <c r="M22" s="135"/>
+      <c r="N22" s="135"/>
+      <c r="O22" s="135"/>
+      <c r="P22" s="135"/>
+      <c r="Q22" s="135"/>
       <c r="R22" s="33"/>
       <c r="S22" s="82"/>
       <c r="T22" s="83"/>
@@ -3375,23 +2346,23 @@
       <c r="W22" s="85"/>
     </row>
     <row r="23" spans="1:23" s="86" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="162"/>
+      <c r="A23" s="104"/>
       <c r="B23" s="32"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="114"/>
-      <c r="N23" s="114"/>
-      <c r="O23" s="114"/>
-      <c r="P23" s="114"/>
-      <c r="Q23" s="114"/>
+      <c r="C23" s="135"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="135"/>
+      <c r="F23" s="135"/>
+      <c r="G23" s="135"/>
+      <c r="H23" s="135"/>
+      <c r="I23" s="135"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="135"/>
+      <c r="L23" s="135"/>
+      <c r="M23" s="135"/>
+      <c r="N23" s="135"/>
+      <c r="O23" s="135"/>
+      <c r="P23" s="135"/>
+      <c r="Q23" s="135"/>
       <c r="R23" s="33"/>
       <c r="S23" s="82"/>
       <c r="T23" s="83"/>
@@ -3400,23 +2371,23 @@
       <c r="W23" s="85"/>
     </row>
     <row r="24" spans="1:23" s="86" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="162"/>
+      <c r="A24" s="104"/>
       <c r="B24" s="32"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="114"/>
-      <c r="M24" s="114"/>
-      <c r="N24" s="114"/>
-      <c r="O24" s="114"/>
-      <c r="P24" s="114"/>
-      <c r="Q24" s="114"/>
+      <c r="C24" s="135"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="135"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="135"/>
+      <c r="H24" s="135"/>
+      <c r="I24" s="135"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="135"/>
+      <c r="L24" s="135"/>
+      <c r="M24" s="135"/>
+      <c r="N24" s="135"/>
+      <c r="O24" s="135"/>
+      <c r="P24" s="135"/>
+      <c r="Q24" s="135"/>
       <c r="R24" s="33"/>
       <c r="S24" s="82"/>
       <c r="T24" s="83"/>
@@ -3425,23 +2396,23 @@
       <c r="W24" s="85"/>
     </row>
     <row r="25" spans="1:23" s="86" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="162"/>
+      <c r="A25" s="104"/>
       <c r="B25" s="32"/>
-      <c r="C25" s="114"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="114"/>
-      <c r="J25" s="114"/>
-      <c r="K25" s="114"/>
-      <c r="L25" s="114"/>
-      <c r="M25" s="114"/>
-      <c r="N25" s="114"/>
-      <c r="O25" s="114"/>
-      <c r="P25" s="114"/>
-      <c r="Q25" s="114"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="135"/>
+      <c r="K25" s="135"/>
+      <c r="L25" s="135"/>
+      <c r="M25" s="135"/>
+      <c r="N25" s="135"/>
+      <c r="O25" s="135"/>
+      <c r="P25" s="135"/>
+      <c r="Q25" s="135"/>
       <c r="R25" s="34"/>
       <c r="S25" s="82"/>
       <c r="T25" s="83"/>
@@ -3450,23 +2421,23 @@
       <c r="W25" s="85"/>
     </row>
     <row r="26" spans="1:23" s="86" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="162"/>
+      <c r="A26" s="104"/>
       <c r="B26" s="32"/>
-      <c r="C26" s="114"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="114"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="114"/>
-      <c r="L26" s="114"/>
-      <c r="M26" s="114"/>
-      <c r="N26" s="114"/>
-      <c r="O26" s="114"/>
-      <c r="P26" s="114"/>
-      <c r="Q26" s="114"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="135"/>
+      <c r="K26" s="135"/>
+      <c r="L26" s="135"/>
+      <c r="M26" s="135"/>
+      <c r="N26" s="135"/>
+      <c r="O26" s="135"/>
+      <c r="P26" s="135"/>
+      <c r="Q26" s="135"/>
       <c r="R26" s="33"/>
       <c r="S26" s="82"/>
       <c r="T26" s="83"/>
@@ -3475,23 +2446,23 @@
       <c r="W26" s="85"/>
     </row>
     <row r="27" spans="1:23" s="86" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="162"/>
+      <c r="A27" s="104"/>
       <c r="B27" s="32"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="114"/>
-      <c r="J27" s="114"/>
-      <c r="K27" s="114"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="114"/>
-      <c r="N27" s="114"/>
-      <c r="O27" s="114"/>
-      <c r="P27" s="114"/>
-      <c r="Q27" s="114"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="135"/>
+      <c r="J27" s="135"/>
+      <c r="K27" s="135"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="135"/>
+      <c r="N27" s="135"/>
+      <c r="O27" s="135"/>
+      <c r="P27" s="135"/>
+      <c r="Q27" s="135"/>
       <c r="R27" s="33"/>
       <c r="S27" s="82"/>
       <c r="T27" s="83"/>
@@ -3500,23 +2471,23 @@
       <c r="W27" s="85"/>
     </row>
     <row r="28" spans="1:23" s="86" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="162"/>
+      <c r="A28" s="104"/>
       <c r="B28" s="32"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="114"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="114"/>
-      <c r="N28" s="114"/>
-      <c r="O28" s="114"/>
-      <c r="P28" s="114"/>
-      <c r="Q28" s="114"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="135"/>
+      <c r="F28" s="135"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="135"/>
+      <c r="I28" s="135"/>
+      <c r="J28" s="135"/>
+      <c r="K28" s="135"/>
+      <c r="L28" s="135"/>
+      <c r="M28" s="135"/>
+      <c r="N28" s="135"/>
+      <c r="O28" s="135"/>
+      <c r="P28" s="135"/>
+      <c r="Q28" s="135"/>
       <c r="R28" s="33"/>
       <c r="S28" s="82"/>
       <c r="T28" s="83"/>
@@ -3525,7 +2496,7 @@
       <c r="W28" s="85"/>
     </row>
     <row r="29" spans="1:23" s="86" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="162"/>
+      <c r="A29" s="104"/>
       <c r="B29" s="32"/>
       <c r="C29" s="96"/>
       <c r="D29" s="96"/>
@@ -3550,7 +2521,7 @@
       <c r="W29" s="85"/>
     </row>
     <row r="30" spans="1:23" s="79" customFormat="1" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="162"/>
+      <c r="A30" s="104"/>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
@@ -3575,7 +2546,7 @@
       <c r="W30" s="81"/>
     </row>
     <row r="31" spans="1:23" s="79" customFormat="1" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="162"/>
+      <c r="A31" s="104"/>
       <c r="B31" s="40" t="s">
         <v>23</v>
       </c>
@@ -3602,23 +2573,23 @@
       <c r="W31" s="81"/>
     </row>
     <row r="32" spans="1:23" s="88" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="162"/>
+      <c r="A32" s="104"/>
       <c r="B32" s="45"/>
-      <c r="C32" s="114"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="114"/>
-      <c r="N32" s="114"/>
-      <c r="O32" s="114"/>
-      <c r="P32" s="114"/>
-      <c r="Q32" s="114"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="135"/>
+      <c r="F32" s="135"/>
+      <c r="G32" s="135"/>
+      <c r="H32" s="135"/>
+      <c r="I32" s="135"/>
+      <c r="J32" s="135"/>
+      <c r="K32" s="135"/>
+      <c r="L32" s="135"/>
+      <c r="M32" s="135"/>
+      <c r="N32" s="135"/>
+      <c r="O32" s="135"/>
+      <c r="P32" s="135"/>
+      <c r="Q32" s="135"/>
       <c r="R32" s="46"/>
       <c r="S32" s="87"/>
       <c r="T32" s="87"/>
@@ -3626,23 +2597,23 @@
       <c r="V32" s="87"/>
     </row>
     <row r="33" spans="1:22" s="88" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="162"/>
+      <c r="A33" s="104"/>
       <c r="B33" s="45"/>
-      <c r="C33" s="114"/>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="114"/>
-      <c r="I33" s="114"/>
-      <c r="J33" s="114"/>
-      <c r="K33" s="114"/>
-      <c r="L33" s="114"/>
-      <c r="M33" s="114"/>
-      <c r="N33" s="114"/>
-      <c r="O33" s="114"/>
-      <c r="P33" s="114"/>
-      <c r="Q33" s="114"/>
+      <c r="C33" s="135"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="135"/>
+      <c r="G33" s="135"/>
+      <c r="H33" s="135"/>
+      <c r="I33" s="135"/>
+      <c r="J33" s="135"/>
+      <c r="K33" s="135"/>
+      <c r="L33" s="135"/>
+      <c r="M33" s="135"/>
+      <c r="N33" s="135"/>
+      <c r="O33" s="135"/>
+      <c r="P33" s="135"/>
+      <c r="Q33" s="135"/>
       <c r="R33" s="46"/>
       <c r="S33" s="87"/>
       <c r="T33" s="87"/>
@@ -3650,23 +2621,23 @@
       <c r="V33" s="87"/>
     </row>
     <row r="34" spans="1:22" s="88" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="162"/>
+      <c r="A34" s="104"/>
       <c r="B34" s="45"/>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="114"/>
-      <c r="J34" s="114"/>
-      <c r="K34" s="114"/>
-      <c r="L34" s="114"/>
-      <c r="M34" s="114"/>
-      <c r="N34" s="114"/>
-      <c r="O34" s="114"/>
-      <c r="P34" s="114"/>
-      <c r="Q34" s="114"/>
+      <c r="C34" s="135"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="135"/>
+      <c r="F34" s="135"/>
+      <c r="G34" s="135"/>
+      <c r="H34" s="135"/>
+      <c r="I34" s="135"/>
+      <c r="J34" s="135"/>
+      <c r="K34" s="135"/>
+      <c r="L34" s="135"/>
+      <c r="M34" s="135"/>
+      <c r="N34" s="135"/>
+      <c r="O34" s="135"/>
+      <c r="P34" s="135"/>
+      <c r="Q34" s="135"/>
       <c r="R34" s="46"/>
       <c r="S34" s="87"/>
       <c r="T34" s="87"/>
@@ -3674,23 +2645,23 @@
       <c r="V34" s="87"/>
     </row>
     <row r="35" spans="1:22" s="88" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="162"/>
+      <c r="A35" s="104"/>
       <c r="B35" s="45"/>
-      <c r="C35" s="114"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="114"/>
-      <c r="I35" s="114"/>
-      <c r="J35" s="114"/>
-      <c r="K35" s="114"/>
-      <c r="L35" s="114"/>
-      <c r="M35" s="114"/>
-      <c r="N35" s="114"/>
-      <c r="O35" s="114"/>
-      <c r="P35" s="114"/>
-      <c r="Q35" s="114"/>
+      <c r="C35" s="135"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="135"/>
+      <c r="G35" s="135"/>
+      <c r="H35" s="135"/>
+      <c r="I35" s="135"/>
+      <c r="J35" s="135"/>
+      <c r="K35" s="135"/>
+      <c r="L35" s="135"/>
+      <c r="M35" s="135"/>
+      <c r="N35" s="135"/>
+      <c r="O35" s="135"/>
+      <c r="P35" s="135"/>
+      <c r="Q35" s="135"/>
       <c r="R35" s="46"/>
       <c r="S35" s="87"/>
       <c r="T35" s="87"/>
@@ -3698,23 +2669,23 @@
       <c r="V35" s="87"/>
     </row>
     <row r="36" spans="1:22" s="88" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="162"/>
+      <c r="A36" s="104"/>
       <c r="B36" s="45"/>
-      <c r="C36" s="114"/>
-      <c r="D36" s="114"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="114"/>
-      <c r="G36" s="114"/>
-      <c r="H36" s="114"/>
-      <c r="I36" s="114"/>
-      <c r="J36" s="114"/>
-      <c r="K36" s="114"/>
-      <c r="L36" s="114"/>
-      <c r="M36" s="114"/>
-      <c r="N36" s="114"/>
-      <c r="O36" s="114"/>
-      <c r="P36" s="114"/>
-      <c r="Q36" s="114"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="135"/>
+      <c r="F36" s="135"/>
+      <c r="G36" s="135"/>
+      <c r="H36" s="135"/>
+      <c r="I36" s="135"/>
+      <c r="J36" s="135"/>
+      <c r="K36" s="135"/>
+      <c r="L36" s="135"/>
+      <c r="M36" s="135"/>
+      <c r="N36" s="135"/>
+      <c r="O36" s="135"/>
+      <c r="P36" s="135"/>
+      <c r="Q36" s="135"/>
       <c r="R36" s="46"/>
       <c r="S36" s="87"/>
       <c r="T36" s="87"/>
@@ -3722,7 +2693,7 @@
       <c r="V36" s="87"/>
     </row>
     <row r="37" spans="1:22" s="79" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="162"/>
+      <c r="A37" s="104"/>
       <c r="B37" s="48"/>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
@@ -3746,64 +2717,64 @@
       <c r="V37" s="78"/>
     </row>
     <row r="38" spans="1:22" s="79" customFormat="1" ht="35.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="162"/>
-      <c r="B38" s="144" t="s">
+      <c r="A38" s="104"/>
+      <c r="B38" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="145"/>
-      <c r="D38" s="145"/>
-      <c r="E38" s="145"/>
-      <c r="F38" s="145"/>
-      <c r="G38" s="145"/>
-      <c r="H38" s="145"/>
-      <c r="I38" s="145"/>
-      <c r="J38" s="145"/>
-      <c r="K38" s="145"/>
-      <c r="L38" s="145"/>
-      <c r="M38" s="145"/>
-      <c r="N38" s="145"/>
-      <c r="O38" s="145"/>
-      <c r="P38" s="145"/>
-      <c r="Q38" s="145"/>
-      <c r="R38" s="146"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="110"/>
+      <c r="H38" s="110"/>
+      <c r="I38" s="110"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="110"/>
+      <c r="L38" s="110"/>
+      <c r="M38" s="110"/>
+      <c r="N38" s="110"/>
+      <c r="O38" s="110"/>
+      <c r="P38" s="110"/>
+      <c r="Q38" s="110"/>
+      <c r="R38" s="111"/>
       <c r="S38" s="78"/>
       <c r="T38" s="78"/>
       <c r="U38" s="78"/>
       <c r="V38" s="78"/>
     </row>
     <row r="39" spans="1:22" s="90" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="162"/>
-      <c r="B39" s="147" t="s">
+      <c r="A39" s="104"/>
+      <c r="B39" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="149" t="s">
+      <c r="C39" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="150"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="149" t="s">
+      <c r="D39" s="115"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="G39" s="151"/>
-      <c r="H39" s="115" t="s">
+      <c r="G39" s="116"/>
+      <c r="H39" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="I39" s="116"/>
-      <c r="J39" s="116"/>
-      <c r="K39" s="117"/>
-      <c r="L39" s="149" t="s">
+      <c r="I39" s="121"/>
+      <c r="J39" s="121"/>
+      <c r="K39" s="122"/>
+      <c r="L39" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="M39" s="150"/>
-      <c r="N39" s="151"/>
-      <c r="O39" s="149" t="s">
+      <c r="M39" s="115"/>
+      <c r="N39" s="116"/>
+      <c r="O39" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="P39" s="151"/>
-      <c r="Q39" s="155" t="s">
+      <c r="P39" s="116"/>
+      <c r="Q39" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="R39" s="157" t="s">
+      <c r="R39" s="125" t="s">
         <v>32</v>
       </c>
       <c r="S39" s="89"/>
@@ -3812,48 +2783,48 @@
       <c r="V39" s="89"/>
     </row>
     <row r="40" spans="1:22" s="90" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="162"/>
-      <c r="B40" s="148"/>
-      <c r="C40" s="152"/>
-      <c r="D40" s="153"/>
-      <c r="E40" s="154"/>
-      <c r="F40" s="152"/>
-      <c r="G40" s="154"/>
-      <c r="H40" s="115" t="s">
+      <c r="A40" s="104"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="118"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="119"/>
+      <c r="H40" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="I40" s="116"/>
-      <c r="J40" s="116"/>
-      <c r="K40" s="117"/>
-      <c r="L40" s="152"/>
-      <c r="M40" s="153"/>
-      <c r="N40" s="154"/>
-      <c r="O40" s="152"/>
-      <c r="P40" s="154"/>
-      <c r="Q40" s="156"/>
-      <c r="R40" s="158"/>
+      <c r="I40" s="121"/>
+      <c r="J40" s="121"/>
+      <c r="K40" s="122"/>
+      <c r="L40" s="117"/>
+      <c r="M40" s="118"/>
+      <c r="N40" s="119"/>
+      <c r="O40" s="117"/>
+      <c r="P40" s="119"/>
+      <c r="Q40" s="124"/>
+      <c r="R40" s="126"/>
       <c r="S40" s="89"/>
       <c r="T40" s="89"/>
       <c r="U40" s="89"/>
       <c r="V40" s="89"/>
     </row>
     <row r="41" spans="1:22" s="90" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="162"/>
+      <c r="A41" s="104"/>
       <c r="B41" s="49"/>
-      <c r="C41" s="134"/>
-      <c r="D41" s="134"/>
-      <c r="E41" s="134"/>
-      <c r="F41" s="143"/>
-      <c r="G41" s="143"/>
-      <c r="H41" s="118"/>
-      <c r="I41" s="119"/>
-      <c r="J41" s="119"/>
-      <c r="K41" s="120"/>
-      <c r="L41" s="140"/>
-      <c r="M41" s="140"/>
-      <c r="N41" s="140"/>
-      <c r="O41" s="112"/>
-      <c r="P41" s="113"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="107"/>
+      <c r="G41" s="107"/>
+      <c r="H41" s="142"/>
+      <c r="I41" s="143"/>
+      <c r="J41" s="143"/>
+      <c r="K41" s="144"/>
+      <c r="L41" s="108"/>
+      <c r="M41" s="108"/>
+      <c r="N41" s="108"/>
+      <c r="O41" s="140"/>
+      <c r="P41" s="141"/>
       <c r="Q41" s="50"/>
       <c r="R41" s="51"/>
       <c r="S41" s="89"/>
@@ -3862,22 +2833,22 @@
       <c r="V41" s="89"/>
     </row>
     <row r="42" spans="1:22" s="90" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="162"/>
+      <c r="A42" s="104"/>
       <c r="B42" s="52"/>
-      <c r="C42" s="134"/>
-      <c r="D42" s="134"/>
-      <c r="E42" s="134"/>
-      <c r="F42" s="139"/>
-      <c r="G42" s="139"/>
-      <c r="H42" s="121"/>
-      <c r="I42" s="122"/>
-      <c r="J42" s="122"/>
-      <c r="K42" s="123"/>
-      <c r="L42" s="140"/>
-      <c r="M42" s="140"/>
-      <c r="N42" s="140"/>
-      <c r="O42" s="112"/>
-      <c r="P42" s="113"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="106"/>
+      <c r="E42" s="106"/>
+      <c r="F42" s="127"/>
+      <c r="G42" s="127"/>
+      <c r="H42" s="145"/>
+      <c r="I42" s="146"/>
+      <c r="J42" s="146"/>
+      <c r="K42" s="147"/>
+      <c r="L42" s="108"/>
+      <c r="M42" s="108"/>
+      <c r="N42" s="108"/>
+      <c r="O42" s="140"/>
+      <c r="P42" s="141"/>
       <c r="Q42" s="53"/>
       <c r="R42" s="54"/>
       <c r="S42" s="89"/>
@@ -3886,22 +2857,22 @@
       <c r="V42" s="89"/>
     </row>
     <row r="43" spans="1:22" s="90" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="162"/>
+      <c r="A43" s="104"/>
       <c r="B43" s="52"/>
-      <c r="C43" s="134"/>
-      <c r="D43" s="134"/>
-      <c r="E43" s="134"/>
-      <c r="F43" s="139"/>
-      <c r="G43" s="139"/>
-      <c r="H43" s="121"/>
-      <c r="I43" s="122"/>
-      <c r="J43" s="122"/>
-      <c r="K43" s="123"/>
-      <c r="L43" s="140"/>
-      <c r="M43" s="140"/>
-      <c r="N43" s="140"/>
-      <c r="O43" s="112"/>
-      <c r="P43" s="113"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="106"/>
+      <c r="F43" s="127"/>
+      <c r="G43" s="127"/>
+      <c r="H43" s="145"/>
+      <c r="I43" s="146"/>
+      <c r="J43" s="146"/>
+      <c r="K43" s="147"/>
+      <c r="L43" s="108"/>
+      <c r="M43" s="108"/>
+      <c r="N43" s="108"/>
+      <c r="O43" s="140"/>
+      <c r="P43" s="141"/>
       <c r="Q43" s="53"/>
       <c r="R43" s="54"/>
       <c r="S43" s="89"/>
@@ -3910,22 +2881,22 @@
       <c r="V43" s="89"/>
     </row>
     <row r="44" spans="1:22" s="90" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="162"/>
+      <c r="A44" s="104"/>
       <c r="B44" s="52"/>
-      <c r="C44" s="134"/>
-      <c r="D44" s="134"/>
-      <c r="E44" s="134"/>
-      <c r="F44" s="139"/>
-      <c r="G44" s="139"/>
-      <c r="H44" s="121"/>
-      <c r="I44" s="122"/>
-      <c r="J44" s="122"/>
-      <c r="K44" s="123"/>
-      <c r="L44" s="140"/>
-      <c r="M44" s="140"/>
-      <c r="N44" s="140"/>
-      <c r="O44" s="112"/>
-      <c r="P44" s="113"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="127"/>
+      <c r="G44" s="127"/>
+      <c r="H44" s="145"/>
+      <c r="I44" s="146"/>
+      <c r="J44" s="146"/>
+      <c r="K44" s="147"/>
+      <c r="L44" s="108"/>
+      <c r="M44" s="108"/>
+      <c r="N44" s="108"/>
+      <c r="O44" s="140"/>
+      <c r="P44" s="141"/>
       <c r="Q44" s="53"/>
       <c r="R44" s="54"/>
       <c r="S44" s="89"/>
@@ -3934,22 +2905,22 @@
       <c r="V44" s="89"/>
     </row>
     <row r="45" spans="1:22" s="90" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="162"/>
+      <c r="A45" s="104"/>
       <c r="B45" s="52"/>
-      <c r="C45" s="134"/>
-      <c r="D45" s="134"/>
-      <c r="E45" s="134"/>
-      <c r="F45" s="139"/>
-      <c r="G45" s="139"/>
-      <c r="H45" s="121"/>
-      <c r="I45" s="122"/>
-      <c r="J45" s="122"/>
-      <c r="K45" s="123"/>
-      <c r="L45" s="140"/>
-      <c r="M45" s="140"/>
-      <c r="N45" s="140"/>
-      <c r="O45" s="112"/>
-      <c r="P45" s="113"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="106"/>
+      <c r="F45" s="127"/>
+      <c r="G45" s="127"/>
+      <c r="H45" s="145"/>
+      <c r="I45" s="146"/>
+      <c r="J45" s="146"/>
+      <c r="K45" s="147"/>
+      <c r="L45" s="108"/>
+      <c r="M45" s="108"/>
+      <c r="N45" s="108"/>
+      <c r="O45" s="140"/>
+      <c r="P45" s="141"/>
       <c r="Q45" s="53"/>
       <c r="R45" s="54"/>
       <c r="S45" s="89"/>
@@ -3958,22 +2929,22 @@
       <c r="V45" s="89"/>
     </row>
     <row r="46" spans="1:22" s="90" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="162"/>
+      <c r="A46" s="104"/>
       <c r="B46" s="52"/>
-      <c r="C46" s="134"/>
-      <c r="D46" s="134"/>
-      <c r="E46" s="134"/>
-      <c r="F46" s="139"/>
-      <c r="G46" s="139"/>
-      <c r="H46" s="121"/>
-      <c r="I46" s="122"/>
-      <c r="J46" s="122"/>
-      <c r="K46" s="123"/>
-      <c r="L46" s="140"/>
-      <c r="M46" s="140"/>
-      <c r="N46" s="140"/>
-      <c r="O46" s="112"/>
-      <c r="P46" s="113"/>
+      <c r="C46" s="106"/>
+      <c r="D46" s="106"/>
+      <c r="E46" s="106"/>
+      <c r="F46" s="127"/>
+      <c r="G46" s="127"/>
+      <c r="H46" s="145"/>
+      <c r="I46" s="146"/>
+      <c r="J46" s="146"/>
+      <c r="K46" s="147"/>
+      <c r="L46" s="108"/>
+      <c r="M46" s="108"/>
+      <c r="N46" s="108"/>
+      <c r="O46" s="140"/>
+      <c r="P46" s="141"/>
       <c r="Q46" s="53"/>
       <c r="R46" s="54"/>
       <c r="S46" s="89"/>
@@ -3982,22 +2953,22 @@
       <c r="V46" s="89"/>
     </row>
     <row r="47" spans="1:22" s="90" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="162"/>
+      <c r="A47" s="104"/>
       <c r="B47" s="52"/>
-      <c r="C47" s="134"/>
-      <c r="D47" s="134"/>
-      <c r="E47" s="134"/>
-      <c r="F47" s="139"/>
-      <c r="G47" s="139"/>
-      <c r="H47" s="121"/>
-      <c r="I47" s="122"/>
-      <c r="J47" s="122"/>
-      <c r="K47" s="123"/>
-      <c r="L47" s="140"/>
-      <c r="M47" s="140"/>
-      <c r="N47" s="140"/>
-      <c r="O47" s="112"/>
-      <c r="P47" s="113"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="106"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="127"/>
+      <c r="G47" s="127"/>
+      <c r="H47" s="145"/>
+      <c r="I47" s="146"/>
+      <c r="J47" s="146"/>
+      <c r="K47" s="147"/>
+      <c r="L47" s="108"/>
+      <c r="M47" s="108"/>
+      <c r="N47" s="108"/>
+      <c r="O47" s="140"/>
+      <c r="P47" s="141"/>
       <c r="Q47" s="53"/>
       <c r="R47" s="54"/>
       <c r="S47" s="89"/>
@@ -4006,22 +2977,22 @@
       <c r="V47" s="89"/>
     </row>
     <row r="48" spans="1:22" s="90" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="162"/>
+      <c r="A48" s="104"/>
       <c r="B48" s="55"/>
-      <c r="C48" s="134"/>
-      <c r="D48" s="134"/>
-      <c r="E48" s="134"/>
-      <c r="F48" s="141"/>
-      <c r="G48" s="141"/>
-      <c r="H48" s="121"/>
-      <c r="I48" s="122"/>
-      <c r="J48" s="122"/>
-      <c r="K48" s="123"/>
-      <c r="L48" s="142"/>
-      <c r="M48" s="142"/>
-      <c r="N48" s="142"/>
-      <c r="O48" s="112"/>
-      <c r="P48" s="113"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="106"/>
+      <c r="E48" s="106"/>
+      <c r="F48" s="128"/>
+      <c r="G48" s="128"/>
+      <c r="H48" s="145"/>
+      <c r="I48" s="146"/>
+      <c r="J48" s="146"/>
+      <c r="K48" s="147"/>
+      <c r="L48" s="129"/>
+      <c r="M48" s="129"/>
+      <c r="N48" s="129"/>
+      <c r="O48" s="140"/>
+      <c r="P48" s="141"/>
       <c r="Q48" s="56"/>
       <c r="R48" s="57"/>
       <c r="S48" s="89"/>
@@ -4030,22 +3001,22 @@
       <c r="V48" s="89"/>
     </row>
     <row r="49" spans="1:22" s="90" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="162"/>
+      <c r="A49" s="104"/>
       <c r="B49" s="55"/>
-      <c r="C49" s="134"/>
-      <c r="D49" s="134"/>
-      <c r="E49" s="134"/>
-      <c r="F49" s="141"/>
-      <c r="G49" s="141"/>
-      <c r="H49" s="121"/>
-      <c r="I49" s="122"/>
-      <c r="J49" s="122"/>
-      <c r="K49" s="123"/>
-      <c r="L49" s="142"/>
-      <c r="M49" s="142"/>
-      <c r="N49" s="142"/>
-      <c r="O49" s="112"/>
-      <c r="P49" s="113"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="106"/>
+      <c r="E49" s="106"/>
+      <c r="F49" s="128"/>
+      <c r="G49" s="128"/>
+      <c r="H49" s="145"/>
+      <c r="I49" s="146"/>
+      <c r="J49" s="146"/>
+      <c r="K49" s="147"/>
+      <c r="L49" s="129"/>
+      <c r="M49" s="129"/>
+      <c r="N49" s="129"/>
+      <c r="O49" s="140"/>
+      <c r="P49" s="141"/>
       <c r="Q49" s="56"/>
       <c r="R49" s="57"/>
       <c r="S49" s="89"/>
@@ -4054,22 +3025,22 @@
       <c r="V49" s="89"/>
     </row>
     <row r="50" spans="1:22" s="90" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="162"/>
+      <c r="A50" s="104"/>
       <c r="B50" s="52"/>
-      <c r="C50" s="134"/>
-      <c r="D50" s="134"/>
-      <c r="E50" s="134"/>
-      <c r="F50" s="139"/>
-      <c r="G50" s="139"/>
-      <c r="H50" s="121"/>
-      <c r="I50" s="122"/>
-      <c r="J50" s="122"/>
-      <c r="K50" s="123"/>
-      <c r="L50" s="140"/>
-      <c r="M50" s="140"/>
-      <c r="N50" s="140"/>
-      <c r="O50" s="112"/>
-      <c r="P50" s="113"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="106"/>
+      <c r="E50" s="106"/>
+      <c r="F50" s="127"/>
+      <c r="G50" s="127"/>
+      <c r="H50" s="145"/>
+      <c r="I50" s="146"/>
+      <c r="J50" s="146"/>
+      <c r="K50" s="147"/>
+      <c r="L50" s="108"/>
+      <c r="M50" s="108"/>
+      <c r="N50" s="108"/>
+      <c r="O50" s="140"/>
+      <c r="P50" s="141"/>
       <c r="Q50" s="58"/>
       <c r="R50" s="54"/>
       <c r="S50" s="89"/>
@@ -4078,22 +3049,22 @@
       <c r="V50" s="89"/>
     </row>
     <row r="51" spans="1:22" s="90" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="162"/>
+      <c r="A51" s="104"/>
       <c r="B51" s="52"/>
-      <c r="C51" s="134"/>
-      <c r="D51" s="134"/>
-      <c r="E51" s="134"/>
-      <c r="F51" s="139"/>
-      <c r="G51" s="139"/>
-      <c r="H51" s="121"/>
-      <c r="I51" s="122"/>
-      <c r="J51" s="122"/>
-      <c r="K51" s="123"/>
-      <c r="L51" s="140"/>
-      <c r="M51" s="140"/>
-      <c r="N51" s="140"/>
-      <c r="O51" s="112"/>
-      <c r="P51" s="113"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="106"/>
+      <c r="E51" s="106"/>
+      <c r="F51" s="127"/>
+      <c r="G51" s="127"/>
+      <c r="H51" s="145"/>
+      <c r="I51" s="146"/>
+      <c r="J51" s="146"/>
+      <c r="K51" s="147"/>
+      <c r="L51" s="108"/>
+      <c r="M51" s="108"/>
+      <c r="N51" s="108"/>
+      <c r="O51" s="140"/>
+      <c r="P51" s="141"/>
       <c r="Q51" s="58"/>
       <c r="R51" s="54"/>
       <c r="S51" s="89"/>
@@ -4102,22 +3073,22 @@
       <c r="V51" s="89"/>
     </row>
     <row r="52" spans="1:22" s="90" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="162"/>
+      <c r="A52" s="104"/>
       <c r="B52" s="59"/>
-      <c r="C52" s="134"/>
-      <c r="D52" s="134"/>
-      <c r="E52" s="134"/>
-      <c r="F52" s="135"/>
-      <c r="G52" s="135"/>
-      <c r="H52" s="124"/>
-      <c r="I52" s="125"/>
-      <c r="J52" s="125"/>
-      <c r="K52" s="126"/>
-      <c r="L52" s="136"/>
-      <c r="M52" s="136"/>
-      <c r="N52" s="136"/>
-      <c r="O52" s="137"/>
-      <c r="P52" s="138"/>
+      <c r="C52" s="106"/>
+      <c r="D52" s="106"/>
+      <c r="E52" s="106"/>
+      <c r="F52" s="136"/>
+      <c r="G52" s="136"/>
+      <c r="H52" s="148"/>
+      <c r="I52" s="149"/>
+      <c r="J52" s="149"/>
+      <c r="K52" s="150"/>
+      <c r="L52" s="137"/>
+      <c r="M52" s="137"/>
+      <c r="N52" s="137"/>
+      <c r="O52" s="138"/>
+      <c r="P52" s="139"/>
       <c r="Q52" s="60"/>
       <c r="R52" s="61"/>
       <c r="S52" s="89"/>
@@ -4126,19 +3097,19 @@
       <c r="V52" s="89"/>
     </row>
     <row r="53" spans="1:22" s="90" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="162"/>
+      <c r="A53" s="104"/>
       <c r="B53" s="62"/>
-      <c r="C53" s="130" t="s">
+      <c r="C53" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="D53" s="130"/>
-      <c r="E53" s="130"/>
+      <c r="D53" s="131"/>
+      <c r="E53" s="131"/>
       <c r="F53" s="63"/>
-      <c r="G53" s="131" t="s">
+      <c r="G53" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="H53" s="131"/>
-      <c r="I53" s="131"/>
+      <c r="H53" s="132"/>
+      <c r="I53" s="132"/>
       <c r="J53" s="64"/>
       <c r="K53" s="65"/>
       <c r="L53" s="65"/>
@@ -4154,14 +3125,14 @@
       <c r="V53" s="89"/>
     </row>
     <row r="54" spans="1:22" s="89" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="163"/>
+      <c r="A54" s="105"/>
       <c r="B54" s="68"/>
-      <c r="C54" s="132"/>
-      <c r="D54" s="132"/>
-      <c r="E54" s="132"/>
-      <c r="F54" s="132"/>
-      <c r="G54" s="133"/>
-      <c r="H54" s="133"/>
+      <c r="C54" s="133"/>
+      <c r="D54" s="133"/>
+      <c r="E54" s="133"/>
+      <c r="F54" s="133"/>
+      <c r="G54" s="134"/>
+      <c r="H54" s="134"/>
       <c r="I54" s="69"/>
       <c r="J54" s="69"/>
       <c r="K54" s="70"/>
@@ -4180,73 +3151,73 @@
     </row>
     <row r="56" spans="1:22" s="72" customFormat="1" ht="11.25" x14ac:dyDescent="0.25"/>
     <row r="57" spans="1:22" s="76" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="101" t="s">
+      <c r="B57" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="102"/>
-      <c r="D57" s="103"/>
-      <c r="E57" s="101" t="s">
+      <c r="C57" s="154"/>
+      <c r="D57" s="155"/>
+      <c r="E57" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="F57" s="102"/>
-      <c r="G57" s="103"/>
-      <c r="H57" s="101" t="s">
+      <c r="F57" s="154"/>
+      <c r="G57" s="155"/>
+      <c r="H57" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="I57" s="102"/>
-      <c r="J57" s="103"/>
-      <c r="K57" s="101" t="s">
+      <c r="I57" s="154"/>
+      <c r="J57" s="155"/>
+      <c r="K57" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="L57" s="102"/>
-      <c r="M57" s="103"/>
-      <c r="N57" s="101" t="s">
+      <c r="L57" s="154"/>
+      <c r="M57" s="155"/>
+      <c r="N57" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="O57" s="102"/>
-      <c r="P57" s="103"/>
+      <c r="O57" s="154"/>
+      <c r="P57" s="155"/>
       <c r="S57" s="72"/>
       <c r="T57" s="72"/>
       <c r="U57" s="72"/>
       <c r="V57" s="72"/>
     </row>
     <row r="58" spans="1:22" s="76" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="104"/>
-      <c r="C58" s="105"/>
-      <c r="D58" s="106"/>
-      <c r="E58" s="104"/>
-      <c r="F58" s="105"/>
-      <c r="G58" s="106"/>
-      <c r="H58" s="104"/>
-      <c r="I58" s="105"/>
-      <c r="J58" s="106"/>
-      <c r="K58" s="104"/>
-      <c r="L58" s="105"/>
-      <c r="M58" s="106"/>
-      <c r="N58" s="104"/>
-      <c r="O58" s="105"/>
-      <c r="P58" s="106"/>
+      <c r="B58" s="156"/>
+      <c r="C58" s="157"/>
+      <c r="D58" s="158"/>
+      <c r="E58" s="156"/>
+      <c r="F58" s="157"/>
+      <c r="G58" s="158"/>
+      <c r="H58" s="156"/>
+      <c r="I58" s="157"/>
+      <c r="J58" s="158"/>
+      <c r="K58" s="156"/>
+      <c r="L58" s="157"/>
+      <c r="M58" s="158"/>
+      <c r="N58" s="156"/>
+      <c r="O58" s="157"/>
+      <c r="P58" s="158"/>
       <c r="S58" s="72"/>
       <c r="T58" s="72"/>
       <c r="U58" s="72"/>
       <c r="V58" s="72"/>
     </row>
     <row r="59" spans="1:22" s="76" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="107"/>
-      <c r="C59" s="108"/>
-      <c r="D59" s="109"/>
-      <c r="E59" s="107"/>
-      <c r="F59" s="108"/>
-      <c r="G59" s="109"/>
-      <c r="H59" s="107"/>
-      <c r="I59" s="108"/>
-      <c r="J59" s="109"/>
-      <c r="K59" s="107"/>
-      <c r="L59" s="108"/>
-      <c r="M59" s="109"/>
-      <c r="N59" s="107"/>
-      <c r="O59" s="108"/>
-      <c r="P59" s="109"/>
+      <c r="B59" s="159"/>
+      <c r="C59" s="160"/>
+      <c r="D59" s="161"/>
+      <c r="E59" s="159"/>
+      <c r="F59" s="160"/>
+      <c r="G59" s="161"/>
+      <c r="H59" s="159"/>
+      <c r="I59" s="160"/>
+      <c r="J59" s="161"/>
+      <c r="K59" s="159"/>
+      <c r="L59" s="160"/>
+      <c r="M59" s="161"/>
+      <c r="N59" s="159"/>
+      <c r="O59" s="160"/>
+      <c r="P59" s="161"/>
       <c r="S59" s="72"/>
       <c r="T59" s="72"/>
       <c r="U59" s="72"/>
@@ -4256,59 +3227,59 @@
       <c r="B60" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="110"/>
-      <c r="D60" s="111"/>
+      <c r="C60" s="162"/>
+      <c r="D60" s="163"/>
       <c r="E60" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F60" s="110"/>
-      <c r="G60" s="111"/>
+      <c r="F60" s="162"/>
+      <c r="G60" s="163"/>
       <c r="H60" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I60" s="110"/>
-      <c r="J60" s="111"/>
+      <c r="I60" s="162"/>
+      <c r="J60" s="163"/>
       <c r="K60" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="L60" s="110"/>
-      <c r="M60" s="111"/>
+      <c r="L60" s="162"/>
+      <c r="M60" s="163"/>
       <c r="N60" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="O60" s="110"/>
-      <c r="P60" s="111"/>
+      <c r="O60" s="162"/>
+      <c r="P60" s="163"/>
       <c r="S60" s="72"/>
       <c r="T60" s="72"/>
       <c r="U60" s="72"/>
       <c r="V60" s="72"/>
     </row>
     <row r="61" spans="1:22" s="76" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="101" t="s">
+      <c r="B61" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="102"/>
-      <c r="D61" s="103"/>
-      <c r="E61" s="101" t="s">
+      <c r="C61" s="154"/>
+      <c r="D61" s="155"/>
+      <c r="E61" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="F61" s="102"/>
-      <c r="G61" s="103"/>
-      <c r="H61" s="101" t="s">
+      <c r="F61" s="154"/>
+      <c r="G61" s="155"/>
+      <c r="H61" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="I61" s="102"/>
-      <c r="J61" s="103"/>
-      <c r="K61" s="101" t="s">
+      <c r="I61" s="154"/>
+      <c r="J61" s="155"/>
+      <c r="K61" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="L61" s="102"/>
-      <c r="M61" s="103"/>
-      <c r="N61" s="101" t="s">
+      <c r="L61" s="154"/>
+      <c r="M61" s="155"/>
+      <c r="N61" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="O61" s="102"/>
-      <c r="P61" s="103"/>
+      <c r="O61" s="154"/>
+      <c r="P61" s="155"/>
       <c r="S61" s="72"/>
       <c r="T61" s="72"/>
       <c r="U61" s="72"/>
@@ -4321,40 +3292,40 @@
       <c r="V62" s="72"/>
     </row>
     <row r="63" spans="1:22" s="76" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="101" t="s">
+      <c r="B63" s="153" t="s">
         <v>42</v>
       </c>
-      <c r="C63" s="102"/>
-      <c r="D63" s="103"/>
-      <c r="E63" s="101" t="s">
+      <c r="C63" s="154"/>
+      <c r="D63" s="155"/>
+      <c r="E63" s="153" t="s">
         <v>43</v>
       </c>
-      <c r="F63" s="102"/>
-      <c r="G63" s="103"/>
+      <c r="F63" s="154"/>
+      <c r="G63" s="155"/>
       <c r="S63" s="72"/>
       <c r="T63" s="72"/>
       <c r="U63" s="72"/>
       <c r="V63" s="72"/>
     </row>
     <row r="64" spans="1:22" s="76" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="104"/>
-      <c r="C64" s="105"/>
-      <c r="D64" s="106"/>
-      <c r="E64" s="104"/>
-      <c r="F64" s="105"/>
-      <c r="G64" s="106"/>
+      <c r="B64" s="156"/>
+      <c r="C64" s="157"/>
+      <c r="D64" s="158"/>
+      <c r="E64" s="156"/>
+      <c r="F64" s="157"/>
+      <c r="G64" s="158"/>
       <c r="S64" s="72"/>
       <c r="T64" s="72"/>
       <c r="U64" s="72"/>
       <c r="V64" s="72"/>
     </row>
     <row r="65" spans="2:22" s="76" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="107"/>
-      <c r="C65" s="108"/>
-      <c r="D65" s="109"/>
-      <c r="E65" s="107"/>
-      <c r="F65" s="108"/>
-      <c r="G65" s="109"/>
+      <c r="B65" s="159"/>
+      <c r="C65" s="160"/>
+      <c r="D65" s="161"/>
+      <c r="E65" s="159"/>
+      <c r="F65" s="160"/>
+      <c r="G65" s="161"/>
       <c r="S65" s="72"/>
       <c r="T65" s="72"/>
       <c r="U65" s="72"/>
@@ -4364,29 +3335,29 @@
       <c r="B66" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="110"/>
-      <c r="D66" s="111"/>
+      <c r="C66" s="162"/>
+      <c r="D66" s="163"/>
       <c r="E66" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F66" s="110"/>
-      <c r="G66" s="111"/>
+      <c r="F66" s="162"/>
+      <c r="G66" s="163"/>
       <c r="S66" s="72"/>
       <c r="T66" s="72"/>
       <c r="U66" s="72"/>
       <c r="V66" s="72"/>
     </row>
     <row r="67" spans="2:22" s="76" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="101" t="s">
+      <c r="B67" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="C67" s="102"/>
-      <c r="D67" s="103"/>
-      <c r="E67" s="101" t="s">
+      <c r="C67" s="154"/>
+      <c r="D67" s="155"/>
+      <c r="E67" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="F67" s="102"/>
-      <c r="G67" s="103"/>
+      <c r="F67" s="154"/>
+      <c r="G67" s="155"/>
       <c r="S67" s="72"/>
       <c r="T67" s="72"/>
       <c r="U67" s="72"/>
@@ -7352,6 +6323,103 @@
     </row>
   </sheetData>
   <mergeCells count="121">
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="N58:P59"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="K58:M59"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="H58:J59"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D65"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E64:G65"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G59"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="C21:Q21"/>
+    <mergeCell ref="C22:Q22"/>
+    <mergeCell ref="C23:Q23"/>
+    <mergeCell ref="C24:Q24"/>
+    <mergeCell ref="C25:Q25"/>
+    <mergeCell ref="C26:Q26"/>
+    <mergeCell ref="C27:Q27"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="C28:Q28"/>
+    <mergeCell ref="C32:Q32"/>
+    <mergeCell ref="C33:Q33"/>
+    <mergeCell ref="C34:Q34"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C35:Q35"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="C36:Q36"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K52"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="O44:P44"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:A54"/>
     <mergeCell ref="C41:E41"/>
@@ -7376,2270 +6444,8 @@
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="C28:Q28"/>
-    <mergeCell ref="C32:Q32"/>
-    <mergeCell ref="C33:Q33"/>
-    <mergeCell ref="C34:Q34"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C35:Q35"/>
-    <mergeCell ref="C36:Q36"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H41:K52"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="C21:Q21"/>
-    <mergeCell ref="C22:Q22"/>
-    <mergeCell ref="C23:Q23"/>
-    <mergeCell ref="C24:Q24"/>
-    <mergeCell ref="C25:Q25"/>
-    <mergeCell ref="C26:Q26"/>
-    <mergeCell ref="C27:Q27"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E64:G65"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G59"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="N58:P59"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="K58:M59"/>
-    <mergeCell ref="K61:M61"/>
-    <mergeCell ref="H58:J59"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C1AFD2-F486-41D9-86C7-6D4ECF816122}">
-  <dimension ref="A1:AD79"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" style="172" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" style="172" customWidth="1"/>
-    <col min="3" max="3" width="64.140625" style="172" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="172" customWidth="1"/>
-    <col min="5" max="13" width="18" style="172" customWidth="1"/>
-    <col min="14" max="14" width="22.5703125" style="172" customWidth="1"/>
-    <col min="15" max="20" width="18" style="172" customWidth="1"/>
-    <col min="21" max="21" width="27.5703125" style="172" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="172"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30" s="75" customFormat="1" ht="36" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="164"/>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="165"/>
-      <c r="O1" s="164"/>
-      <c r="P1" s="165" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="166" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" s="166"/>
-      <c r="T1" s="166"/>
-      <c r="U1" s="166"/>
-      <c r="V1" s="167"/>
-      <c r="W1" s="167"/>
-      <c r="X1" s="167"/>
-      <c r="Y1" s="167"/>
-      <c r="Z1" s="168"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-    </row>
-    <row r="2" spans="1:30" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="169" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
-      <c r="O2" s="170"/>
-      <c r="P2" s="170"/>
-      <c r="Q2" s="170"/>
-      <c r="R2" s="170"/>
-      <c r="S2" s="170"/>
-      <c r="T2" s="170"/>
-      <c r="U2" s="171"/>
-    </row>
-    <row r="3" spans="1:30" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="173"/>
-      <c r="B3" s="174"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="174"/>
-      <c r="K3" s="174"/>
-      <c r="L3" s="174"/>
-      <c r="M3" s="174"/>
-      <c r="N3" s="174"/>
-      <c r="O3" s="174"/>
-      <c r="P3" s="174"/>
-      <c r="Q3" s="174"/>
-      <c r="R3" s="174"/>
-      <c r="S3" s="174"/>
-      <c r="T3" s="174"/>
-      <c r="U3" s="175"/>
-    </row>
-    <row r="4" spans="1:30" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="176" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="178">
-        <v>3096</v>
-      </c>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
-      <c r="J4" s="177"/>
-      <c r="K4" s="177"/>
-      <c r="L4" s="177"/>
-      <c r="M4" s="177"/>
-      <c r="N4" s="177"/>
-      <c r="O4" s="177"/>
-      <c r="P4" s="177"/>
-      <c r="Q4" s="179" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" s="180">
-        <v>0</v>
-      </c>
-      <c r="S4" s="180"/>
-      <c r="T4" s="179" t="s">
-        <v>11</v>
-      </c>
-      <c r="U4" s="181">
-        <v>44631</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="177"/>
-      <c r="C5" s="178" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="177"/>
-      <c r="E5" s="177"/>
-      <c r="F5" s="177"/>
-      <c r="G5" s="177"/>
-      <c r="H5" s="177"/>
-      <c r="I5" s="177"/>
-      <c r="J5" s="177"/>
-      <c r="K5" s="177"/>
-      <c r="L5" s="177"/>
-      <c r="M5" s="177"/>
-      <c r="N5" s="177"/>
-      <c r="O5" s="177"/>
-      <c r="P5" s="177"/>
-      <c r="Q5" s="177"/>
-      <c r="R5" s="177"/>
-      <c r="S5" s="177"/>
-      <c r="T5" s="177"/>
-      <c r="U5" s="182"/>
-    </row>
-    <row r="6" spans="1:30" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="176" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="177"/>
-      <c r="C6" s="183" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="177"/>
-      <c r="E6" s="177"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="177"/>
-      <c r="I6" s="177"/>
-      <c r="J6" s="177"/>
-      <c r="K6" s="177"/>
-      <c r="L6" s="177"/>
-      <c r="M6" s="177"/>
-      <c r="N6" s="177"/>
-      <c r="O6" s="177"/>
-      <c r="P6" s="177"/>
-      <c r="Q6" s="177"/>
-      <c r="R6" s="177"/>
-      <c r="S6" s="177"/>
-      <c r="T6" s="177"/>
-      <c r="U6" s="182"/>
-    </row>
-    <row r="7" spans="1:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="176"/>
-      <c r="B7" s="177"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="177"/>
-      <c r="I7" s="177"/>
-      <c r="J7" s="177"/>
-      <c r="K7" s="177"/>
-      <c r="L7" s="177"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="177"/>
-      <c r="O7" s="177"/>
-      <c r="P7" s="177"/>
-      <c r="Q7" s="177"/>
-      <c r="R7" s="177"/>
-      <c r="S7" s="177"/>
-      <c r="T7" s="177"/>
-      <c r="U7" s="182"/>
-    </row>
-    <row r="8" spans="1:30" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="184" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="185" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="185" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="185" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="186" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="187"/>
-      <c r="G8" s="187"/>
-      <c r="H8" s="187"/>
-      <c r="I8" s="187"/>
-      <c r="J8" s="187"/>
-      <c r="K8" s="187"/>
-      <c r="L8" s="187"/>
-      <c r="M8" s="187"/>
-      <c r="N8" s="187"/>
-      <c r="O8" s="187"/>
-      <c r="P8" s="187"/>
-      <c r="Q8" s="187"/>
-      <c r="R8" s="187"/>
-      <c r="S8" s="187"/>
-      <c r="T8" s="188"/>
-      <c r="U8" s="189" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="184"/>
-      <c r="B9" s="190"/>
-      <c r="C9" s="190"/>
-      <c r="D9" s="190"/>
-      <c r="E9" s="191" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="191" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="191" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="191" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="191" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="191" t="s">
-        <v>61</v>
-      </c>
-      <c r="K9" s="191" t="s">
-        <v>62</v>
-      </c>
-      <c r="L9" s="191" t="s">
-        <v>58</v>
-      </c>
-      <c r="M9" s="191" t="s">
-        <v>63</v>
-      </c>
-      <c r="N9" s="191" t="s">
-        <v>64</v>
-      </c>
-      <c r="O9" s="191" t="s">
-        <v>58</v>
-      </c>
-      <c r="P9" s="191" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q9" s="191" t="s">
-        <v>66</v>
-      </c>
-      <c r="R9" s="191" t="s">
-        <v>58</v>
-      </c>
-      <c r="S9" s="191" t="s">
-        <v>67</v>
-      </c>
-      <c r="T9" s="191" t="s">
-        <v>68</v>
-      </c>
-      <c r="U9" s="192"/>
-    </row>
-    <row r="10" spans="1:30" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="184"/>
-      <c r="B10" s="193">
-        <v>1</v>
-      </c>
-      <c r="C10" s="194" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="195">
-        <v>44627</v>
-      </c>
-      <c r="E10" s="196" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="195">
-        <v>44631</v>
-      </c>
-      <c r="G10" s="195">
-        <f>F10+10</f>
-        <v>44641</v>
-      </c>
-      <c r="H10" s="196" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="195">
-        <v>44644</v>
-      </c>
-      <c r="J10" s="195">
-        <f>I10+11</f>
-        <v>44655</v>
-      </c>
-      <c r="K10" s="196" t="s">
-        <v>72</v>
-      </c>
-      <c r="L10" s="195">
-        <v>44658</v>
-      </c>
-      <c r="M10" s="195">
-        <f>L10+21</f>
-        <v>44679</v>
-      </c>
-      <c r="N10" s="196" t="s">
-        <v>73</v>
-      </c>
-      <c r="O10" s="195">
-        <v>44686</v>
-      </c>
-      <c r="P10" s="195">
-        <f>O10+21</f>
-        <v>44707</v>
-      </c>
-      <c r="Q10" s="195" t="s">
-        <v>74</v>
-      </c>
-      <c r="R10" s="195">
-        <v>44711</v>
-      </c>
-      <c r="S10" s="195">
-        <f>R10+21</f>
-        <v>44732</v>
-      </c>
-      <c r="T10" s="197" t="s">
-        <v>75</v>
-      </c>
-      <c r="U10" s="198"/>
-    </row>
-    <row r="11" spans="1:30" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="184"/>
-      <c r="B11" s="199">
-        <v>2</v>
-      </c>
-      <c r="C11" s="200" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="201">
-        <v>44627</v>
-      </c>
-      <c r="E11" s="201" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="201">
-        <v>44631</v>
-      </c>
-      <c r="G11" s="201">
-        <v>44641</v>
-      </c>
-      <c r="H11" s="201" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" s="201">
-        <v>44644</v>
-      </c>
-      <c r="J11" s="201">
-        <v>44655</v>
-      </c>
-      <c r="K11" s="201" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="201">
-        <v>44658</v>
-      </c>
-      <c r="M11" s="201">
-        <v>44679</v>
-      </c>
-      <c r="N11" s="201" t="s">
-        <v>73</v>
-      </c>
-      <c r="O11" s="201">
-        <v>44686</v>
-      </c>
-      <c r="P11" s="201">
-        <v>44707</v>
-      </c>
-      <c r="Q11" s="201" t="s">
-        <v>74</v>
-      </c>
-      <c r="R11" s="201">
-        <v>44711</v>
-      </c>
-      <c r="S11" s="201">
-        <v>44732</v>
-      </c>
-      <c r="T11" s="201" t="s">
-        <v>75</v>
-      </c>
-      <c r="U11" s="202"/>
-    </row>
-    <row r="12" spans="1:30" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="184"/>
-      <c r="B12" s="199">
-        <v>3</v>
-      </c>
-      <c r="C12" s="200" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="201">
-        <v>44627</v>
-      </c>
-      <c r="E12" s="201" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="201">
-        <v>44631</v>
-      </c>
-      <c r="G12" s="201">
-        <v>44641</v>
-      </c>
-      <c r="H12" s="201" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="201">
-        <v>44644</v>
-      </c>
-      <c r="J12" s="201">
-        <v>44655</v>
-      </c>
-      <c r="K12" s="201" t="s">
-        <v>72</v>
-      </c>
-      <c r="L12" s="201">
-        <v>44658</v>
-      </c>
-      <c r="M12" s="201">
-        <v>44679</v>
-      </c>
-      <c r="N12" s="201" t="s">
-        <v>73</v>
-      </c>
-      <c r="O12" s="201">
-        <v>44686</v>
-      </c>
-      <c r="P12" s="201">
-        <v>44707</v>
-      </c>
-      <c r="Q12" s="201" t="s">
-        <v>74</v>
-      </c>
-      <c r="R12" s="201">
-        <v>44711</v>
-      </c>
-      <c r="S12" s="201">
-        <v>44732</v>
-      </c>
-      <c r="T12" s="201" t="s">
-        <v>75</v>
-      </c>
-      <c r="U12" s="202"/>
-    </row>
-    <row r="13" spans="1:30" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="184"/>
-      <c r="B13" s="199">
-        <v>4</v>
-      </c>
-      <c r="C13" s="200" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="201">
-        <v>44627</v>
-      </c>
-      <c r="E13" s="201" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="201">
-        <v>44631</v>
-      </c>
-      <c r="G13" s="201">
-        <v>44641</v>
-      </c>
-      <c r="H13" s="201" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="201">
-        <v>44644</v>
-      </c>
-      <c r="J13" s="201">
-        <v>44655</v>
-      </c>
-      <c r="K13" s="201" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="201">
-        <v>44658</v>
-      </c>
-      <c r="M13" s="201">
-        <v>44679</v>
-      </c>
-      <c r="N13" s="201" t="s">
-        <v>73</v>
-      </c>
-      <c r="O13" s="201">
-        <v>44686</v>
-      </c>
-      <c r="P13" s="201">
-        <v>44707</v>
-      </c>
-      <c r="Q13" s="201" t="s">
-        <v>74</v>
-      </c>
-      <c r="R13" s="201">
-        <v>44711</v>
-      </c>
-      <c r="S13" s="201">
-        <v>44732</v>
-      </c>
-      <c r="T13" s="201" t="s">
-        <v>75</v>
-      </c>
-      <c r="U13" s="202"/>
-    </row>
-    <row r="14" spans="1:30" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="184"/>
-      <c r="B14" s="199">
-        <v>5</v>
-      </c>
-      <c r="C14" s="200" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="201">
-        <v>44627</v>
-      </c>
-      <c r="E14" s="201" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="201">
-        <v>44631</v>
-      </c>
-      <c r="G14" s="201">
-        <v>44641</v>
-      </c>
-      <c r="H14" s="201" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" s="201">
-        <v>44644</v>
-      </c>
-      <c r="J14" s="201">
-        <v>44655</v>
-      </c>
-      <c r="K14" s="201" t="s">
-        <v>72</v>
-      </c>
-      <c r="L14" s="201">
-        <v>44658</v>
-      </c>
-      <c r="M14" s="201">
-        <v>44679</v>
-      </c>
-      <c r="N14" s="201" t="s">
-        <v>73</v>
-      </c>
-      <c r="O14" s="201">
-        <v>44686</v>
-      </c>
-      <c r="P14" s="201">
-        <v>44707</v>
-      </c>
-      <c r="Q14" s="201" t="s">
-        <v>74</v>
-      </c>
-      <c r="R14" s="201">
-        <v>44711</v>
-      </c>
-      <c r="S14" s="201">
-        <v>44732</v>
-      </c>
-      <c r="T14" s="201" t="s">
-        <v>75</v>
-      </c>
-      <c r="U14" s="202"/>
-    </row>
-    <row r="15" spans="1:30" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="184"/>
-      <c r="B15" s="199">
-        <v>6</v>
-      </c>
-      <c r="C15" s="203" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="204">
-        <v>44627</v>
-      </c>
-      <c r="E15" s="204" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="204">
-        <v>44631</v>
-      </c>
-      <c r="G15" s="204">
-        <v>44641</v>
-      </c>
-      <c r="H15" s="204" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="204">
-        <v>44644</v>
-      </c>
-      <c r="J15" s="204">
-        <v>44655</v>
-      </c>
-      <c r="K15" s="204" t="s">
-        <v>72</v>
-      </c>
-      <c r="L15" s="204">
-        <v>44658</v>
-      </c>
-      <c r="M15" s="204">
-        <v>44679</v>
-      </c>
-      <c r="N15" s="204" t="s">
-        <v>73</v>
-      </c>
-      <c r="O15" s="204">
-        <v>44686</v>
-      </c>
-      <c r="P15" s="204">
-        <v>44707</v>
-      </c>
-      <c r="Q15" s="204" t="s">
-        <v>74</v>
-      </c>
-      <c r="R15" s="204">
-        <v>44711</v>
-      </c>
-      <c r="S15" s="204">
-        <v>44732</v>
-      </c>
-      <c r="T15" s="204" t="s">
-        <v>75</v>
-      </c>
-      <c r="U15" s="205"/>
-    </row>
-    <row r="16" spans="1:30" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="184"/>
-      <c r="B16" s="199">
-        <v>7</v>
-      </c>
-      <c r="C16" s="206" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="204">
-        <v>44627</v>
-      </c>
-      <c r="E16" s="204" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="204">
-        <v>44631</v>
-      </c>
-      <c r="G16" s="204">
-        <v>44641</v>
-      </c>
-      <c r="H16" s="204" t="s">
-        <v>71</v>
-      </c>
-      <c r="I16" s="204">
-        <v>44644</v>
-      </c>
-      <c r="J16" s="204">
-        <v>44655</v>
-      </c>
-      <c r="K16" s="204" t="s">
-        <v>72</v>
-      </c>
-      <c r="L16" s="204">
-        <v>44658</v>
-      </c>
-      <c r="M16" s="204">
-        <v>44679</v>
-      </c>
-      <c r="N16" s="204" t="s">
-        <v>73</v>
-      </c>
-      <c r="O16" s="204">
-        <v>44686</v>
-      </c>
-      <c r="P16" s="204">
-        <v>44707</v>
-      </c>
-      <c r="Q16" s="204" t="s">
-        <v>74</v>
-      </c>
-      <c r="R16" s="204">
-        <v>44711</v>
-      </c>
-      <c r="S16" s="204">
-        <v>44732</v>
-      </c>
-      <c r="T16" s="204" t="s">
-        <v>75</v>
-      </c>
-      <c r="U16" s="205"/>
-    </row>
-    <row r="17" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="184"/>
-      <c r="B17" s="199"/>
-      <c r="C17" s="206"/>
-      <c r="D17" s="204"/>
-      <c r="E17" s="204"/>
-      <c r="F17" s="204"/>
-      <c r="G17" s="204"/>
-      <c r="H17" s="204"/>
-      <c r="I17" s="204"/>
-      <c r="J17" s="204"/>
-      <c r="K17" s="204"/>
-      <c r="L17" s="204"/>
-      <c r="M17" s="204"/>
-      <c r="N17" s="204"/>
-      <c r="O17" s="204"/>
-      <c r="P17" s="204"/>
-      <c r="Q17" s="204"/>
-      <c r="R17" s="204"/>
-      <c r="S17" s="204"/>
-      <c r="T17" s="204"/>
-      <c r="U17" s="205"/>
-    </row>
-    <row r="18" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="184"/>
-      <c r="B18" s="199"/>
-      <c r="C18" s="206"/>
-      <c r="D18" s="204"/>
-      <c r="E18" s="204"/>
-      <c r="F18" s="204"/>
-      <c r="G18" s="204"/>
-      <c r="H18" s="204"/>
-      <c r="I18" s="204"/>
-      <c r="J18" s="204"/>
-      <c r="K18" s="204"/>
-      <c r="L18" s="204"/>
-      <c r="M18" s="204"/>
-      <c r="N18" s="204"/>
-      <c r="O18" s="204"/>
-      <c r="P18" s="204"/>
-      <c r="Q18" s="204"/>
-      <c r="R18" s="204"/>
-      <c r="S18" s="204"/>
-      <c r="T18" s="204"/>
-      <c r="U18" s="205"/>
-    </row>
-    <row r="19" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="184"/>
-      <c r="B19" s="207"/>
-      <c r="C19" s="203"/>
-      <c r="D19" s="204"/>
-      <c r="E19" s="204"/>
-      <c r="F19" s="204"/>
-      <c r="G19" s="204"/>
-      <c r="H19" s="204"/>
-      <c r="I19" s="204"/>
-      <c r="J19" s="204"/>
-      <c r="K19" s="204"/>
-      <c r="L19" s="204"/>
-      <c r="M19" s="204"/>
-      <c r="N19" s="204"/>
-      <c r="O19" s="204"/>
-      <c r="P19" s="204"/>
-      <c r="Q19" s="204"/>
-      <c r="R19" s="204"/>
-      <c r="S19" s="204"/>
-      <c r="T19" s="204"/>
-      <c r="U19" s="205"/>
-    </row>
-    <row r="20" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="184"/>
-      <c r="B20" s="208"/>
-      <c r="C20" s="209"/>
-      <c r="D20" s="210"/>
-      <c r="E20" s="210"/>
-      <c r="F20" s="210"/>
-      <c r="G20" s="210"/>
-      <c r="H20" s="210"/>
-      <c r="I20" s="210"/>
-      <c r="J20" s="210"/>
-      <c r="K20" s="210"/>
-      <c r="L20" s="210"/>
-      <c r="M20" s="210"/>
-      <c r="N20" s="210"/>
-      <c r="O20" s="210"/>
-      <c r="P20" s="210"/>
-      <c r="Q20" s="210"/>
-      <c r="R20" s="210"/>
-      <c r="S20" s="210"/>
-      <c r="T20" s="210"/>
-      <c r="U20" s="211"/>
-    </row>
-    <row r="21" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="212"/>
-      <c r="B21" s="213"/>
-      <c r="C21" s="213"/>
-      <c r="D21" s="213"/>
-      <c r="E21" s="213"/>
-      <c r="F21" s="213"/>
-      <c r="G21" s="213"/>
-      <c r="H21" s="213"/>
-      <c r="I21" s="213"/>
-      <c r="J21" s="213"/>
-      <c r="K21" s="213"/>
-      <c r="L21" s="213"/>
-      <c r="M21" s="213"/>
-      <c r="N21" s="213"/>
-      <c r="O21" s="213"/>
-      <c r="P21" s="213"/>
-      <c r="Q21" s="213"/>
-      <c r="R21" s="213"/>
-      <c r="S21" s="213"/>
-      <c r="T21" s="213"/>
-      <c r="U21" s="214"/>
-    </row>
-    <row r="22" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="184" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="185" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="185" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="185"/>
-      <c r="E22" s="186" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="187"/>
-      <c r="G22" s="187"/>
-      <c r="H22" s="187"/>
-      <c r="I22" s="187"/>
-      <c r="J22" s="187"/>
-      <c r="K22" s="187"/>
-      <c r="L22" s="187"/>
-      <c r="M22" s="187"/>
-      <c r="N22" s="187"/>
-      <c r="O22" s="187"/>
-      <c r="P22" s="187"/>
-      <c r="Q22" s="187"/>
-      <c r="R22" s="187"/>
-      <c r="S22" s="187"/>
-      <c r="T22" s="188"/>
-      <c r="U22" s="189" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="184"/>
-      <c r="B23" s="190"/>
-      <c r="C23" s="190"/>
-      <c r="D23" s="190"/>
-      <c r="E23" s="191" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="191"/>
-      <c r="G23" s="191"/>
-      <c r="H23" s="191" t="s">
-        <v>60</v>
-      </c>
-      <c r="I23" s="191"/>
-      <c r="J23" s="191"/>
-      <c r="K23" s="191" t="s">
-        <v>62</v>
-      </c>
-      <c r="L23" s="191"/>
-      <c r="M23" s="191"/>
-      <c r="N23" s="191" t="s">
-        <v>64</v>
-      </c>
-      <c r="O23" s="191"/>
-      <c r="P23" s="191"/>
-      <c r="Q23" s="191" t="s">
-        <v>66</v>
-      </c>
-      <c r="R23" s="191"/>
-      <c r="S23" s="191"/>
-      <c r="T23" s="191" t="s">
-        <v>68</v>
-      </c>
-      <c r="U23" s="192"/>
-    </row>
-    <row r="24" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="184"/>
-      <c r="B24" s="193">
-        <v>1</v>
-      </c>
-      <c r="C24" s="194" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="195"/>
-      <c r="E24" s="195">
-        <v>44636</v>
-      </c>
-      <c r="F24" s="195"/>
-      <c r="G24" s="195"/>
-      <c r="H24" s="195">
-        <v>44650</v>
-      </c>
-      <c r="I24" s="195"/>
-      <c r="J24" s="195"/>
-      <c r="K24" s="195">
-        <v>44663</v>
-      </c>
-      <c r="L24" s="195"/>
-      <c r="M24" s="195"/>
-      <c r="N24" s="195">
-        <v>44691</v>
-      </c>
-      <c r="O24" s="195"/>
-      <c r="P24" s="195"/>
-      <c r="Q24" s="195">
-        <v>44718</v>
-      </c>
-      <c r="R24" s="195"/>
-      <c r="S24" s="195"/>
-      <c r="T24" s="195">
-        <v>44740</v>
-      </c>
-      <c r="U24" s="198"/>
-    </row>
-    <row r="25" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="184"/>
-      <c r="B25" s="199">
-        <v>2</v>
-      </c>
-      <c r="C25" s="200" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="201"/>
-      <c r="E25" s="201">
-        <v>44636</v>
-      </c>
-      <c r="F25" s="201"/>
-      <c r="G25" s="201"/>
-      <c r="H25" s="201">
-        <v>44650</v>
-      </c>
-      <c r="I25" s="201"/>
-      <c r="J25" s="201"/>
-      <c r="K25" s="201">
-        <v>44663</v>
-      </c>
-      <c r="L25" s="201"/>
-      <c r="M25" s="201"/>
-      <c r="N25" s="201">
-        <v>44691</v>
-      </c>
-      <c r="O25" s="201"/>
-      <c r="P25" s="201"/>
-      <c r="Q25" s="201">
-        <v>44718</v>
-      </c>
-      <c r="R25" s="201"/>
-      <c r="S25" s="201"/>
-      <c r="T25" s="201">
-        <v>44740</v>
-      </c>
-      <c r="U25" s="202"/>
-    </row>
-    <row r="26" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="184"/>
-      <c r="B26" s="199">
-        <v>3</v>
-      </c>
-      <c r="C26" s="200" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="201"/>
-      <c r="E26" s="201">
-        <v>44636</v>
-      </c>
-      <c r="F26" s="201"/>
-      <c r="G26" s="201"/>
-      <c r="H26" s="201">
-        <v>44650</v>
-      </c>
-      <c r="I26" s="201"/>
-      <c r="J26" s="201"/>
-      <c r="K26" s="201">
-        <v>44663</v>
-      </c>
-      <c r="L26" s="201"/>
-      <c r="M26" s="201"/>
-      <c r="N26" s="201">
-        <v>44691</v>
-      </c>
-      <c r="O26" s="201"/>
-      <c r="P26" s="201"/>
-      <c r="Q26" s="201">
-        <v>44718</v>
-      </c>
-      <c r="R26" s="201"/>
-      <c r="S26" s="201"/>
-      <c r="T26" s="201">
-        <v>44740</v>
-      </c>
-      <c r="U26" s="202"/>
-    </row>
-    <row r="27" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="184"/>
-      <c r="B27" s="199">
-        <v>4</v>
-      </c>
-      <c r="C27" s="200" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="201"/>
-      <c r="E27" s="201">
-        <v>44636</v>
-      </c>
-      <c r="F27" s="201"/>
-      <c r="G27" s="201"/>
-      <c r="H27" s="201">
-        <v>44650</v>
-      </c>
-      <c r="I27" s="201"/>
-      <c r="J27" s="201"/>
-      <c r="K27" s="201">
-        <v>44663</v>
-      </c>
-      <c r="L27" s="201"/>
-      <c r="M27" s="201"/>
-      <c r="N27" s="201">
-        <v>44691</v>
-      </c>
-      <c r="O27" s="201"/>
-      <c r="P27" s="201"/>
-      <c r="Q27" s="201">
-        <v>44718</v>
-      </c>
-      <c r="R27" s="201"/>
-      <c r="S27" s="201"/>
-      <c r="T27" s="201">
-        <v>44740</v>
-      </c>
-      <c r="U27" s="202"/>
-    </row>
-    <row r="28" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="184"/>
-      <c r="B28" s="199">
-        <v>5</v>
-      </c>
-      <c r="C28" s="200" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="201"/>
-      <c r="E28" s="201">
-        <v>44636</v>
-      </c>
-      <c r="F28" s="201"/>
-      <c r="G28" s="201"/>
-      <c r="H28" s="201">
-        <v>44650</v>
-      </c>
-      <c r="I28" s="201"/>
-      <c r="J28" s="201"/>
-      <c r="K28" s="201">
-        <v>44663</v>
-      </c>
-      <c r="L28" s="201"/>
-      <c r="M28" s="201"/>
-      <c r="N28" s="201">
-        <v>44691</v>
-      </c>
-      <c r="O28" s="201"/>
-      <c r="P28" s="201"/>
-      <c r="Q28" s="201">
-        <v>44718</v>
-      </c>
-      <c r="R28" s="201"/>
-      <c r="S28" s="201"/>
-      <c r="T28" s="201">
-        <v>44740</v>
-      </c>
-      <c r="U28" s="202"/>
-    </row>
-    <row r="29" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="184"/>
-      <c r="B29" s="199">
-        <v>6</v>
-      </c>
-      <c r="C29" s="203" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="204"/>
-      <c r="E29" s="204">
-        <v>44636</v>
-      </c>
-      <c r="F29" s="204"/>
-      <c r="G29" s="204"/>
-      <c r="H29" s="204">
-        <v>44650</v>
-      </c>
-      <c r="I29" s="204"/>
-      <c r="J29" s="204"/>
-      <c r="K29" s="204">
-        <v>44663</v>
-      </c>
-      <c r="L29" s="204"/>
-      <c r="M29" s="204"/>
-      <c r="N29" s="204">
-        <v>44691</v>
-      </c>
-      <c r="O29" s="204"/>
-      <c r="P29" s="204"/>
-      <c r="Q29" s="204">
-        <v>44718</v>
-      </c>
-      <c r="R29" s="204"/>
-      <c r="S29" s="204"/>
-      <c r="T29" s="204">
-        <v>44740</v>
-      </c>
-      <c r="U29" s="205"/>
-    </row>
-    <row r="30" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="184"/>
-      <c r="B30" s="199">
-        <v>7</v>
-      </c>
-      <c r="C30" s="206" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="204"/>
-      <c r="E30" s="204">
-        <v>44636</v>
-      </c>
-      <c r="F30" s="204"/>
-      <c r="G30" s="204"/>
-      <c r="H30" s="204">
-        <v>44650</v>
-      </c>
-      <c r="I30" s="204"/>
-      <c r="J30" s="204"/>
-      <c r="K30" s="204">
-        <v>44663</v>
-      </c>
-      <c r="L30" s="204"/>
-      <c r="M30" s="204"/>
-      <c r="N30" s="204">
-        <v>44691</v>
-      </c>
-      <c r="O30" s="204"/>
-      <c r="P30" s="204"/>
-      <c r="Q30" s="204">
-        <v>44718</v>
-      </c>
-      <c r="R30" s="204"/>
-      <c r="S30" s="204"/>
-      <c r="T30" s="204">
-        <v>44740</v>
-      </c>
-      <c r="U30" s="205"/>
-    </row>
-    <row r="31" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="184"/>
-      <c r="B31" s="199"/>
-      <c r="C31" s="206"/>
-      <c r="D31" s="204"/>
-      <c r="E31" s="204"/>
-      <c r="F31" s="204"/>
-      <c r="G31" s="204"/>
-      <c r="H31" s="204"/>
-      <c r="I31" s="204"/>
-      <c r="J31" s="204"/>
-      <c r="K31" s="204"/>
-      <c r="L31" s="204"/>
-      <c r="M31" s="204"/>
-      <c r="N31" s="204"/>
-      <c r="O31" s="204"/>
-      <c r="P31" s="204"/>
-      <c r="Q31" s="204"/>
-      <c r="R31" s="204"/>
-      <c r="S31" s="204"/>
-      <c r="T31" s="204"/>
-      <c r="U31" s="205"/>
-    </row>
-    <row r="32" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="184"/>
-      <c r="B32" s="199"/>
-      <c r="C32" s="206"/>
-      <c r="D32" s="204"/>
-      <c r="E32" s="204"/>
-      <c r="F32" s="204"/>
-      <c r="G32" s="204"/>
-      <c r="H32" s="204"/>
-      <c r="I32" s="204"/>
-      <c r="J32" s="204"/>
-      <c r="K32" s="204"/>
-      <c r="L32" s="204"/>
-      <c r="M32" s="204"/>
-      <c r="N32" s="204"/>
-      <c r="O32" s="204"/>
-      <c r="P32" s="204"/>
-      <c r="Q32" s="204"/>
-      <c r="R32" s="204"/>
-      <c r="S32" s="204"/>
-      <c r="T32" s="204"/>
-      <c r="U32" s="205"/>
-    </row>
-    <row r="33" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="184"/>
-      <c r="B33" s="207"/>
-      <c r="C33" s="203"/>
-      <c r="D33" s="204"/>
-      <c r="E33" s="204"/>
-      <c r="F33" s="204"/>
-      <c r="G33" s="204"/>
-      <c r="H33" s="204"/>
-      <c r="I33" s="204"/>
-      <c r="J33" s="204"/>
-      <c r="K33" s="204"/>
-      <c r="L33" s="204"/>
-      <c r="M33" s="204"/>
-      <c r="N33" s="204"/>
-      <c r="O33" s="204"/>
-      <c r="P33" s="204"/>
-      <c r="Q33" s="204"/>
-      <c r="R33" s="204"/>
-      <c r="S33" s="204"/>
-      <c r="T33" s="204"/>
-      <c r="U33" s="205"/>
-    </row>
-    <row r="34" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="184"/>
-      <c r="B34" s="208"/>
-      <c r="C34" s="209"/>
-      <c r="D34" s="210"/>
-      <c r="E34" s="210"/>
-      <c r="F34" s="210"/>
-      <c r="G34" s="210"/>
-      <c r="H34" s="210"/>
-      <c r="I34" s="210"/>
-      <c r="J34" s="210"/>
-      <c r="K34" s="210"/>
-      <c r="L34" s="210"/>
-      <c r="M34" s="210"/>
-      <c r="N34" s="210"/>
-      <c r="O34" s="210"/>
-      <c r="P34" s="210"/>
-      <c r="Q34" s="210"/>
-      <c r="R34" s="210"/>
-      <c r="S34" s="210"/>
-      <c r="T34" s="210"/>
-      <c r="U34" s="211"/>
-    </row>
-    <row r="35" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="215"/>
-      <c r="B35" s="216"/>
-      <c r="C35" s="217"/>
-      <c r="D35" s="218"/>
-      <c r="E35" s="218"/>
-      <c r="F35" s="218"/>
-      <c r="G35" s="218"/>
-      <c r="H35" s="218"/>
-      <c r="I35" s="218"/>
-      <c r="J35" s="218"/>
-      <c r="K35" s="218"/>
-      <c r="L35" s="218"/>
-      <c r="M35" s="218"/>
-      <c r="N35" s="218"/>
-      <c r="O35" s="218"/>
-      <c r="P35" s="218"/>
-      <c r="Q35" s="218"/>
-      <c r="R35" s="218"/>
-      <c r="S35" s="218"/>
-      <c r="T35" s="218"/>
-      <c r="U35" s="219"/>
-    </row>
-    <row r="36" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="212"/>
-      <c r="B36" s="213"/>
-      <c r="C36" s="213"/>
-      <c r="D36" s="213"/>
-      <c r="E36" s="213"/>
-      <c r="F36" s="213"/>
-      <c r="G36" s="213"/>
-      <c r="H36" s="213"/>
-      <c r="I36" s="213"/>
-      <c r="J36" s="213"/>
-      <c r="K36" s="213"/>
-      <c r="L36" s="213"/>
-      <c r="M36" s="213"/>
-      <c r="N36" s="213"/>
-      <c r="O36" s="213"/>
-      <c r="P36" s="213"/>
-      <c r="Q36" s="213"/>
-      <c r="R36" s="213"/>
-      <c r="S36" s="213"/>
-      <c r="T36" s="213"/>
-      <c r="U36" s="214"/>
-    </row>
-    <row r="37" spans="1:21" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="220"/>
-      <c r="B37" s="221"/>
-      <c r="C37" s="221"/>
-      <c r="D37" s="221"/>
-      <c r="E37" s="222"/>
-      <c r="F37" s="222"/>
-      <c r="G37" s="221"/>
-      <c r="H37" s="221"/>
-      <c r="I37" s="221"/>
-      <c r="J37" s="221"/>
-      <c r="K37" s="221"/>
-      <c r="L37" s="221"/>
-      <c r="M37" s="221"/>
-      <c r="N37" s="221"/>
-      <c r="O37" s="221"/>
-      <c r="P37" s="221"/>
-      <c r="Q37" s="221"/>
-      <c r="R37" s="221"/>
-      <c r="S37" s="221"/>
-      <c r="T37" s="221"/>
-      <c r="U37" s="223"/>
-    </row>
-    <row r="38" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="224" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" s="225" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="225"/>
-      <c r="D38" s="225"/>
-      <c r="E38" s="225"/>
-      <c r="F38" s="225"/>
-      <c r="G38" s="225"/>
-      <c r="H38" s="225"/>
-      <c r="I38" s="225"/>
-      <c r="J38" s="225"/>
-      <c r="K38" s="225"/>
-      <c r="L38" s="225"/>
-      <c r="M38" s="225"/>
-      <c r="N38" s="225"/>
-      <c r="O38" s="225"/>
-      <c r="P38" s="225"/>
-      <c r="Q38" s="225"/>
-      <c r="R38" s="225"/>
-      <c r="S38" s="225"/>
-      <c r="T38" s="225"/>
-      <c r="U38" s="226"/>
-    </row>
-    <row r="39" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="227"/>
-      <c r="B39" s="228"/>
-      <c r="C39" s="228"/>
-      <c r="D39" s="228"/>
-      <c r="E39" s="228"/>
-      <c r="F39" s="228"/>
-      <c r="G39" s="228"/>
-      <c r="H39" s="228"/>
-      <c r="I39" s="228"/>
-      <c r="J39" s="228"/>
-      <c r="K39" s="228"/>
-      <c r="L39" s="228"/>
-      <c r="M39" s="228"/>
-      <c r="N39" s="228"/>
-      <c r="O39" s="228"/>
-      <c r="P39" s="228"/>
-      <c r="Q39" s="228"/>
-      <c r="R39" s="228"/>
-      <c r="S39" s="228"/>
-      <c r="T39" s="228"/>
-      <c r="U39" s="229"/>
-    </row>
-    <row r="40" spans="1:21" s="237" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="230" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" s="231" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="232" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" s="232"/>
-      <c r="E40" s="233" t="s">
-        <v>86</v>
-      </c>
-      <c r="F40" s="234"/>
-      <c r="G40" s="234"/>
-      <c r="H40" s="234"/>
-      <c r="I40" s="234"/>
-      <c r="J40" s="234"/>
-      <c r="K40" s="234"/>
-      <c r="L40" s="234"/>
-      <c r="M40" s="234"/>
-      <c r="N40" s="234"/>
-      <c r="O40" s="234"/>
-      <c r="P40" s="234"/>
-      <c r="Q40" s="234"/>
-      <c r="R40" s="235"/>
-      <c r="S40" s="231" t="s">
-        <v>87</v>
-      </c>
-      <c r="T40" s="231" t="s">
-        <v>88</v>
-      </c>
-      <c r="U40" s="236" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="238"/>
-      <c r="B41" s="239"/>
-      <c r="C41" s="240"/>
-      <c r="D41" s="240"/>
-      <c r="E41" s="241"/>
-      <c r="F41" s="242"/>
-      <c r="G41" s="242"/>
-      <c r="H41" s="242"/>
-      <c r="I41" s="242"/>
-      <c r="J41" s="242"/>
-      <c r="K41" s="242"/>
-      <c r="L41" s="242"/>
-      <c r="M41" s="242"/>
-      <c r="N41" s="242"/>
-      <c r="O41" s="242"/>
-      <c r="P41" s="242"/>
-      <c r="Q41" s="242"/>
-      <c r="R41" s="243"/>
-      <c r="S41" s="239"/>
-      <c r="T41" s="239"/>
-      <c r="U41" s="244"/>
-    </row>
-    <row r="42" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="245"/>
-      <c r="B42" s="246"/>
-      <c r="C42" s="247"/>
-      <c r="D42" s="247"/>
-      <c r="E42" s="248"/>
-      <c r="F42" s="249"/>
-      <c r="G42" s="249"/>
-      <c r="H42" s="249"/>
-      <c r="I42" s="249"/>
-      <c r="J42" s="249"/>
-      <c r="K42" s="249"/>
-      <c r="L42" s="249"/>
-      <c r="M42" s="249"/>
-      <c r="N42" s="249"/>
-      <c r="O42" s="249"/>
-      <c r="P42" s="249"/>
-      <c r="Q42" s="249"/>
-      <c r="R42" s="250"/>
-      <c r="S42" s="246"/>
-      <c r="T42" s="246"/>
-      <c r="U42" s="251"/>
-    </row>
-    <row r="43" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="245"/>
-      <c r="B43" s="246"/>
-      <c r="C43" s="247"/>
-      <c r="D43" s="247"/>
-      <c r="E43" s="248"/>
-      <c r="F43" s="249"/>
-      <c r="G43" s="249"/>
-      <c r="H43" s="249"/>
-      <c r="I43" s="249"/>
-      <c r="J43" s="249"/>
-      <c r="K43" s="249"/>
-      <c r="L43" s="249"/>
-      <c r="M43" s="249"/>
-      <c r="N43" s="249"/>
-      <c r="O43" s="249"/>
-      <c r="P43" s="249"/>
-      <c r="Q43" s="249"/>
-      <c r="R43" s="250"/>
-      <c r="S43" s="246"/>
-      <c r="T43" s="246"/>
-      <c r="U43" s="251"/>
-    </row>
-    <row r="44" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="245"/>
-      <c r="B44" s="246"/>
-      <c r="C44" s="247"/>
-      <c r="D44" s="247"/>
-      <c r="E44" s="248"/>
-      <c r="F44" s="249"/>
-      <c r="G44" s="249"/>
-      <c r="H44" s="249"/>
-      <c r="I44" s="249"/>
-      <c r="J44" s="249"/>
-      <c r="K44" s="249"/>
-      <c r="L44" s="249"/>
-      <c r="M44" s="249"/>
-      <c r="N44" s="249"/>
-      <c r="O44" s="249"/>
-      <c r="P44" s="249"/>
-      <c r="Q44" s="249"/>
-      <c r="R44" s="250"/>
-      <c r="S44" s="246"/>
-      <c r="T44" s="246"/>
-      <c r="U44" s="251"/>
-    </row>
-    <row r="45" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="245"/>
-      <c r="B45" s="246"/>
-      <c r="C45" s="247"/>
-      <c r="D45" s="247"/>
-      <c r="E45" s="248"/>
-      <c r="F45" s="249"/>
-      <c r="G45" s="249"/>
-      <c r="H45" s="249"/>
-      <c r="I45" s="249"/>
-      <c r="J45" s="249"/>
-      <c r="K45" s="249"/>
-      <c r="L45" s="249"/>
-      <c r="M45" s="249"/>
-      <c r="N45" s="249"/>
-      <c r="O45" s="249"/>
-      <c r="P45" s="249"/>
-      <c r="Q45" s="249"/>
-      <c r="R45" s="250"/>
-      <c r="S45" s="246"/>
-      <c r="T45" s="246"/>
-      <c r="U45" s="251"/>
-    </row>
-    <row r="46" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="245"/>
-      <c r="B46" s="246"/>
-      <c r="C46" s="247"/>
-      <c r="D46" s="247"/>
-      <c r="E46" s="248"/>
-      <c r="F46" s="249"/>
-      <c r="G46" s="249"/>
-      <c r="H46" s="249"/>
-      <c r="I46" s="249"/>
-      <c r="J46" s="249"/>
-      <c r="K46" s="249"/>
-      <c r="L46" s="249"/>
-      <c r="M46" s="249"/>
-      <c r="N46" s="249"/>
-      <c r="O46" s="249"/>
-      <c r="P46" s="249"/>
-      <c r="Q46" s="249"/>
-      <c r="R46" s="250"/>
-      <c r="S46" s="246"/>
-      <c r="T46" s="246"/>
-      <c r="U46" s="251"/>
-    </row>
-    <row r="47" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="245"/>
-      <c r="B47" s="246"/>
-      <c r="C47" s="247"/>
-      <c r="D47" s="247"/>
-      <c r="E47" s="248"/>
-      <c r="F47" s="249"/>
-      <c r="G47" s="249"/>
-      <c r="H47" s="249"/>
-      <c r="I47" s="249"/>
-      <c r="J47" s="249"/>
-      <c r="K47" s="249"/>
-      <c r="L47" s="249"/>
-      <c r="M47" s="249"/>
-      <c r="N47" s="249"/>
-      <c r="O47" s="249"/>
-      <c r="P47" s="249"/>
-      <c r="Q47" s="249"/>
-      <c r="R47" s="250"/>
-      <c r="S47" s="246"/>
-      <c r="T47" s="246"/>
-      <c r="U47" s="251"/>
-    </row>
-    <row r="48" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="245"/>
-      <c r="B48" s="246"/>
-      <c r="C48" s="247"/>
-      <c r="D48" s="247"/>
-      <c r="E48" s="248"/>
-      <c r="F48" s="249"/>
-      <c r="G48" s="249"/>
-      <c r="H48" s="249"/>
-      <c r="I48" s="249"/>
-      <c r="J48" s="249"/>
-      <c r="K48" s="249"/>
-      <c r="L48" s="249"/>
-      <c r="M48" s="249"/>
-      <c r="N48" s="249"/>
-      <c r="O48" s="249"/>
-      <c r="P48" s="249"/>
-      <c r="Q48" s="249"/>
-      <c r="R48" s="250"/>
-      <c r="S48" s="246"/>
-      <c r="T48" s="246"/>
-      <c r="U48" s="251"/>
-    </row>
-    <row r="49" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="245"/>
-      <c r="B49" s="246"/>
-      <c r="C49" s="247"/>
-      <c r="D49" s="247"/>
-      <c r="E49" s="248"/>
-      <c r="F49" s="249"/>
-      <c r="G49" s="249"/>
-      <c r="H49" s="249"/>
-      <c r="I49" s="249"/>
-      <c r="J49" s="249"/>
-      <c r="K49" s="249"/>
-      <c r="L49" s="249"/>
-      <c r="M49" s="249"/>
-      <c r="N49" s="249"/>
-      <c r="O49" s="249"/>
-      <c r="P49" s="249"/>
-      <c r="Q49" s="249"/>
-      <c r="R49" s="250"/>
-      <c r="S49" s="246"/>
-      <c r="T49" s="246"/>
-      <c r="U49" s="251"/>
-    </row>
-    <row r="50" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="245"/>
-      <c r="B50" s="246"/>
-      <c r="C50" s="247"/>
-      <c r="D50" s="247"/>
-      <c r="E50" s="248"/>
-      <c r="F50" s="249"/>
-      <c r="G50" s="249"/>
-      <c r="H50" s="249"/>
-      <c r="I50" s="249"/>
-      <c r="J50" s="249"/>
-      <c r="K50" s="249"/>
-      <c r="L50" s="249"/>
-      <c r="M50" s="249"/>
-      <c r="N50" s="249"/>
-      <c r="O50" s="249"/>
-      <c r="P50" s="249"/>
-      <c r="Q50" s="249"/>
-      <c r="R50" s="250"/>
-      <c r="S50" s="246"/>
-      <c r="T50" s="246"/>
-      <c r="U50" s="251"/>
-    </row>
-    <row r="51" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="245"/>
-      <c r="B51" s="246"/>
-      <c r="C51" s="247"/>
-      <c r="D51" s="247"/>
-      <c r="E51" s="248"/>
-      <c r="F51" s="249"/>
-      <c r="G51" s="249"/>
-      <c r="H51" s="249"/>
-      <c r="I51" s="249"/>
-      <c r="J51" s="249"/>
-      <c r="K51" s="249"/>
-      <c r="L51" s="249"/>
-      <c r="M51" s="249"/>
-      <c r="N51" s="249"/>
-      <c r="O51" s="249"/>
-      <c r="P51" s="249"/>
-      <c r="Q51" s="249"/>
-      <c r="R51" s="250"/>
-      <c r="S51" s="246"/>
-      <c r="T51" s="246"/>
-      <c r="U51" s="251"/>
-    </row>
-    <row r="52" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="245"/>
-      <c r="B52" s="246"/>
-      <c r="C52" s="247"/>
-      <c r="D52" s="247"/>
-      <c r="E52" s="248"/>
-      <c r="F52" s="249"/>
-      <c r="G52" s="249"/>
-      <c r="H52" s="249"/>
-      <c r="I52" s="249"/>
-      <c r="J52" s="249"/>
-      <c r="K52" s="249"/>
-      <c r="L52" s="249"/>
-      <c r="M52" s="249"/>
-      <c r="N52" s="249"/>
-      <c r="O52" s="249"/>
-      <c r="P52" s="249"/>
-      <c r="Q52" s="249"/>
-      <c r="R52" s="250"/>
-      <c r="S52" s="246"/>
-      <c r="T52" s="246"/>
-      <c r="U52" s="251"/>
-    </row>
-    <row r="53" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="245"/>
-      <c r="B53" s="246"/>
-      <c r="C53" s="247"/>
-      <c r="D53" s="247"/>
-      <c r="E53" s="248"/>
-      <c r="F53" s="249"/>
-      <c r="G53" s="249"/>
-      <c r="H53" s="249"/>
-      <c r="I53" s="249"/>
-      <c r="J53" s="249"/>
-      <c r="K53" s="249"/>
-      <c r="L53" s="249"/>
-      <c r="M53" s="249"/>
-      <c r="N53" s="249"/>
-      <c r="O53" s="249"/>
-      <c r="P53" s="249"/>
-      <c r="Q53" s="249"/>
-      <c r="R53" s="250"/>
-      <c r="S53" s="246"/>
-      <c r="T53" s="246"/>
-      <c r="U53" s="251"/>
-    </row>
-    <row r="54" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="245"/>
-      <c r="B54" s="246"/>
-      <c r="C54" s="247"/>
-      <c r="D54" s="247"/>
-      <c r="E54" s="248"/>
-      <c r="F54" s="249"/>
-      <c r="G54" s="249"/>
-      <c r="H54" s="249"/>
-      <c r="I54" s="249"/>
-      <c r="J54" s="249"/>
-      <c r="K54" s="249"/>
-      <c r="L54" s="249"/>
-      <c r="M54" s="249"/>
-      <c r="N54" s="249"/>
-      <c r="O54" s="249"/>
-      <c r="P54" s="249"/>
-      <c r="Q54" s="249"/>
-      <c r="R54" s="250"/>
-      <c r="S54" s="246"/>
-      <c r="T54" s="246"/>
-      <c r="U54" s="251"/>
-    </row>
-    <row r="55" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="245"/>
-      <c r="B55" s="246"/>
-      <c r="C55" s="247"/>
-      <c r="D55" s="247"/>
-      <c r="E55" s="248"/>
-      <c r="F55" s="249"/>
-      <c r="G55" s="249"/>
-      <c r="H55" s="249"/>
-      <c r="I55" s="249"/>
-      <c r="J55" s="249"/>
-      <c r="K55" s="249"/>
-      <c r="L55" s="249"/>
-      <c r="M55" s="249"/>
-      <c r="N55" s="249"/>
-      <c r="O55" s="249"/>
-      <c r="P55" s="249"/>
-      <c r="Q55" s="249"/>
-      <c r="R55" s="250"/>
-      <c r="S55" s="246"/>
-      <c r="T55" s="246"/>
-      <c r="U55" s="251"/>
-    </row>
-    <row r="56" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="245"/>
-      <c r="B56" s="246"/>
-      <c r="C56" s="247"/>
-      <c r="D56" s="247"/>
-      <c r="E56" s="248"/>
-      <c r="F56" s="249"/>
-      <c r="G56" s="249"/>
-      <c r="H56" s="249"/>
-      <c r="I56" s="249"/>
-      <c r="J56" s="249"/>
-      <c r="K56" s="249"/>
-      <c r="L56" s="249"/>
-      <c r="M56" s="249"/>
-      <c r="N56" s="249"/>
-      <c r="O56" s="249"/>
-      <c r="P56" s="249"/>
-      <c r="Q56" s="249"/>
-      <c r="R56" s="250"/>
-      <c r="S56" s="246"/>
-      <c r="T56" s="246"/>
-      <c r="U56" s="251"/>
-    </row>
-    <row r="57" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="245"/>
-      <c r="B57" s="246"/>
-      <c r="C57" s="247"/>
-      <c r="D57" s="247"/>
-      <c r="E57" s="248"/>
-      <c r="F57" s="249"/>
-      <c r="G57" s="249"/>
-      <c r="H57" s="249"/>
-      <c r="I57" s="249"/>
-      <c r="J57" s="249"/>
-      <c r="K57" s="249"/>
-      <c r="L57" s="249"/>
-      <c r="M57" s="249"/>
-      <c r="N57" s="249"/>
-      <c r="O57" s="249"/>
-      <c r="P57" s="249"/>
-      <c r="Q57" s="249"/>
-      <c r="R57" s="250"/>
-      <c r="S57" s="246"/>
-      <c r="T57" s="246"/>
-      <c r="U57" s="251"/>
-    </row>
-    <row r="58" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="252"/>
-      <c r="B58" s="253"/>
-      <c r="C58" s="254"/>
-      <c r="D58" s="254"/>
-      <c r="E58" s="255"/>
-      <c r="F58" s="256"/>
-      <c r="G58" s="256"/>
-      <c r="H58" s="256"/>
-      <c r="I58" s="256"/>
-      <c r="J58" s="256"/>
-      <c r="K58" s="256"/>
-      <c r="L58" s="256"/>
-      <c r="M58" s="256"/>
-      <c r="N58" s="256"/>
-      <c r="O58" s="256"/>
-      <c r="P58" s="256"/>
-      <c r="Q58" s="256"/>
-      <c r="R58" s="257"/>
-      <c r="S58" s="253"/>
-      <c r="T58" s="253"/>
-      <c r="U58" s="258"/>
-    </row>
-    <row r="59" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="212"/>
-      <c r="B59" s="213"/>
-      <c r="C59" s="213"/>
-      <c r="D59" s="213"/>
-      <c r="E59" s="213"/>
-      <c r="F59" s="213"/>
-      <c r="G59" s="213"/>
-      <c r="H59" s="213"/>
-      <c r="I59" s="213"/>
-      <c r="J59" s="213"/>
-      <c r="K59" s="213"/>
-      <c r="L59" s="213"/>
-      <c r="M59" s="213"/>
-      <c r="N59" s="213"/>
-      <c r="O59" s="213"/>
-      <c r="P59" s="213"/>
-      <c r="Q59" s="213"/>
-      <c r="R59" s="213"/>
-      <c r="S59" s="213"/>
-      <c r="T59" s="213"/>
-      <c r="U59" s="214"/>
-    </row>
-    <row r="60" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="212"/>
-      <c r="B60" s="213"/>
-      <c r="C60" s="213"/>
-      <c r="D60" s="213"/>
-      <c r="E60" s="213"/>
-      <c r="F60" s="213"/>
-      <c r="G60" s="213"/>
-      <c r="H60" s="213"/>
-      <c r="I60" s="213"/>
-      <c r="J60" s="213"/>
-      <c r="K60" s="213"/>
-      <c r="L60" s="213"/>
-      <c r="M60" s="213"/>
-      <c r="N60" s="213"/>
-      <c r="O60" s="213"/>
-      <c r="P60" s="213"/>
-      <c r="Q60" s="213"/>
-      <c r="R60" s="213"/>
-      <c r="S60" s="213"/>
-      <c r="T60" s="213"/>
-      <c r="U60" s="214"/>
-    </row>
-    <row r="61" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="212"/>
-      <c r="B61" s="213"/>
-      <c r="C61" s="213"/>
-      <c r="D61" s="213"/>
-      <c r="E61" s="213"/>
-      <c r="F61" s="213"/>
-      <c r="G61" s="213"/>
-      <c r="H61" s="213"/>
-      <c r="I61" s="213"/>
-      <c r="J61" s="213"/>
-      <c r="K61" s="213"/>
-      <c r="L61" s="213"/>
-      <c r="M61" s="213"/>
-      <c r="N61" s="213"/>
-      <c r="O61" s="213"/>
-      <c r="P61" s="213"/>
-      <c r="Q61" s="213"/>
-      <c r="R61" s="213"/>
-      <c r="S61" s="213"/>
-      <c r="T61" s="213"/>
-      <c r="U61" s="214"/>
-    </row>
-    <row r="62" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="212"/>
-      <c r="B62" s="213"/>
-      <c r="C62" s="213"/>
-      <c r="D62" s="213"/>
-      <c r="E62" s="213"/>
-      <c r="F62" s="213"/>
-      <c r="G62" s="213"/>
-      <c r="H62" s="213"/>
-      <c r="I62" s="213"/>
-      <c r="J62" s="213"/>
-      <c r="K62" s="213"/>
-      <c r="L62" s="213"/>
-      <c r="M62" s="213"/>
-      <c r="N62" s="213"/>
-      <c r="O62" s="213"/>
-      <c r="P62" s="213"/>
-      <c r="Q62" s="213"/>
-      <c r="R62" s="213"/>
-      <c r="S62" s="213"/>
-      <c r="T62" s="213"/>
-      <c r="U62" s="214"/>
-    </row>
-    <row r="63" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="212"/>
-      <c r="B63" s="213"/>
-      <c r="C63" s="213"/>
-      <c r="D63" s="213"/>
-      <c r="E63" s="213"/>
-      <c r="F63" s="213"/>
-      <c r="G63" s="213"/>
-      <c r="H63" s="213"/>
-      <c r="I63" s="213"/>
-      <c r="J63" s="213"/>
-      <c r="K63" s="213"/>
-      <c r="L63" s="213"/>
-      <c r="M63" s="213"/>
-      <c r="N63" s="213"/>
-      <c r="O63" s="213"/>
-      <c r="P63" s="213"/>
-      <c r="Q63" s="213"/>
-      <c r="R63" s="213"/>
-      <c r="S63" s="213"/>
-      <c r="T63" s="213"/>
-      <c r="U63" s="214"/>
-    </row>
-    <row r="64" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="212"/>
-      <c r="B64" s="213"/>
-      <c r="C64" s="213"/>
-      <c r="D64" s="213"/>
-      <c r="E64" s="213"/>
-      <c r="F64" s="213"/>
-      <c r="G64" s="213"/>
-      <c r="H64" s="213"/>
-      <c r="I64" s="213"/>
-      <c r="J64" s="213"/>
-      <c r="K64" s="213"/>
-      <c r="L64" s="213"/>
-      <c r="M64" s="213"/>
-      <c r="N64" s="213"/>
-      <c r="O64" s="213"/>
-      <c r="P64" s="213"/>
-      <c r="Q64" s="213"/>
-      <c r="R64" s="213"/>
-      <c r="S64" s="213"/>
-      <c r="T64" s="213"/>
-      <c r="U64" s="214"/>
-    </row>
-    <row r="65" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="212"/>
-      <c r="B65" s="213"/>
-      <c r="C65" s="213"/>
-      <c r="D65" s="213"/>
-      <c r="E65" s="213"/>
-      <c r="F65" s="213"/>
-      <c r="G65" s="213"/>
-      <c r="H65" s="213"/>
-      <c r="I65" s="213"/>
-      <c r="J65" s="213"/>
-      <c r="K65" s="213"/>
-      <c r="L65" s="213"/>
-      <c r="M65" s="213"/>
-      <c r="N65" s="213"/>
-      <c r="O65" s="213"/>
-      <c r="P65" s="213"/>
-      <c r="Q65" s="213"/>
-      <c r="R65" s="213"/>
-      <c r="S65" s="213"/>
-      <c r="T65" s="213"/>
-      <c r="U65" s="214"/>
-    </row>
-    <row r="66" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="212"/>
-      <c r="B66" s="213"/>
-      <c r="C66" s="213"/>
-      <c r="D66" s="213"/>
-      <c r="E66" s="213"/>
-      <c r="F66" s="213"/>
-      <c r="G66" s="213"/>
-      <c r="H66" s="213"/>
-      <c r="I66" s="213"/>
-      <c r="J66" s="213"/>
-      <c r="K66" s="213"/>
-      <c r="L66" s="213"/>
-      <c r="M66" s="213"/>
-      <c r="N66" s="213"/>
-      <c r="O66" s="213"/>
-      <c r="P66" s="213"/>
-      <c r="Q66" s="213"/>
-      <c r="R66" s="213"/>
-      <c r="S66" s="213"/>
-      <c r="T66" s="213"/>
-      <c r="U66" s="214"/>
-    </row>
-    <row r="67" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="212"/>
-      <c r="B67" s="213"/>
-      <c r="C67" s="213"/>
-      <c r="D67" s="213"/>
-      <c r="E67" s="213"/>
-      <c r="F67" s="213"/>
-      <c r="G67" s="213"/>
-      <c r="H67" s="213"/>
-      <c r="I67" s="213"/>
-      <c r="J67" s="213"/>
-      <c r="K67" s="213"/>
-      <c r="L67" s="213"/>
-      <c r="M67" s="213"/>
-      <c r="N67" s="213"/>
-      <c r="O67" s="213"/>
-      <c r="P67" s="213"/>
-      <c r="Q67" s="213"/>
-      <c r="R67" s="213"/>
-      <c r="S67" s="213"/>
-      <c r="T67" s="213"/>
-      <c r="U67" s="214"/>
-    </row>
-    <row r="68" spans="1:21" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="259"/>
-      <c r="B68" s="260"/>
-      <c r="C68" s="260"/>
-      <c r="D68" s="260"/>
-      <c r="E68" s="260"/>
-      <c r="F68" s="260"/>
-      <c r="G68" s="260"/>
-      <c r="H68" s="260"/>
-      <c r="I68" s="260"/>
-      <c r="J68" s="260"/>
-      <c r="K68" s="260"/>
-      <c r="L68" s="260"/>
-      <c r="M68" s="260"/>
-      <c r="N68" s="260"/>
-      <c r="O68" s="260"/>
-      <c r="P68" s="260"/>
-      <c r="Q68" s="260"/>
-      <c r="R68" s="260"/>
-      <c r="S68" s="260"/>
-      <c r="T68" s="260"/>
-      <c r="U68" s="261"/>
-    </row>
-    <row r="69" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U69" s="262" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:Q58"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:Q55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:Q56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:Q57"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:Q52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:Q53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:Q54"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:Q49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:Q50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:Q51"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:Q46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:Q47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:Q48"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:Q43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:Q44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:Q45"/>
-    <mergeCell ref="A38:U38"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:Q40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:Q41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:Q42"/>
-    <mergeCell ref="A22:A34"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:T22"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="U24:U34"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="A2:U2"/>
-    <mergeCell ref="A8:A20"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:T8"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="U10:U20"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/assets/request.xlsx
+++ b/src/assets/request.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\@Develop\RealibilityControl\reliability\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FD87F7-0DBF-41BD-86D7-D7C96817BA41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7CC9B3-B825-457A-9B76-233685047DC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{C95BEADF-93CF-4A68-ABC9-21338E5E548A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Request" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1234,6 +1234,132 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1250,13 +1376,7 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1291,15 +1411,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1311,117 +1422,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1742,8 +1742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5DEC55D-4E64-4A5D-B2A7-8830A7A57A73}">
   <dimension ref="A1:W560"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
@@ -1767,38 +1767,38 @@
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="151" t="s">
+      <c r="L1" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="151"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
       <c r="S1" s="74"/>
       <c r="T1" s="74"/>
       <c r="U1" s="74"/>
       <c r="V1" s="74"/>
     </row>
     <row r="2" spans="1:22" s="76" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="144"/>
       <c r="P2" s="100" t="s">
         <v>3</v>
       </c>
@@ -1812,7 +1812,7 @@
       <c r="V2" s="72"/>
     </row>
     <row r="3" spans="1:22" s="78" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="145" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1824,10 +1824,10 @@
       <c r="F3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
       <c r="K3" s="7"/>
       <c r="L3"/>
       <c r="M3"/>
@@ -1841,7 +1841,7 @@
       <c r="U3" s="77"/>
     </row>
     <row r="4" spans="1:22" s="78" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="104"/>
+      <c r="A4" s="146"/>
       <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
@@ -1851,10 +1851,10 @@
       <c r="F4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
       <c r="K4" s="12"/>
       <c r="L4"/>
       <c r="M4"/>
@@ -1868,7 +1868,7 @@
       <c r="U4" s="77"/>
     </row>
     <row r="5" spans="1:22" s="78" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104"/>
+      <c r="A5" s="146"/>
       <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
@@ -1878,10 +1878,10 @@
       <c r="F5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
       <c r="K5" s="12"/>
       <c r="L5"/>
       <c r="M5"/>
@@ -1895,7 +1895,7 @@
       <c r="U5" s="77"/>
     </row>
     <row r="6" spans="1:22" s="78" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="104"/>
+      <c r="A6" s="146"/>
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
@@ -1905,10 +1905,10 @@
       <c r="F6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="152"/>
-      <c r="H6" s="152"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="152"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
       <c r="K6" s="14"/>
       <c r="L6"/>
       <c r="M6"/>
@@ -1922,7 +1922,7 @@
       <c r="U6" s="77"/>
     </row>
     <row r="7" spans="1:22" s="78" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="104"/>
+      <c r="A7" s="146"/>
       <c r="B7" s="15" t="s">
         <v>10</v>
       </c>
@@ -1932,10 +1932,10 @@
       <c r="F7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="152"/>
-      <c r="H7" s="152"/>
-      <c r="I7" s="152"/>
-      <c r="J7" s="152"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
       <c r="K7" s="14"/>
       <c r="L7"/>
       <c r="M7"/>
@@ -1949,7 +1949,7 @@
       <c r="U7" s="77"/>
     </row>
     <row r="8" spans="1:22" s="78" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
+      <c r="A8" s="146"/>
       <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
@@ -1959,10 +1959,10 @@
       <c r="F8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="130"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
       <c r="K8" s="14"/>
       <c r="L8"/>
       <c r="M8"/>
@@ -1976,7 +1976,7 @@
       <c r="U8" s="77"/>
     </row>
     <row r="9" spans="1:22" s="78" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="104"/>
+      <c r="A9" s="146"/>
       <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
@@ -1986,10 +1986,10 @@
       <c r="F9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="130"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
       <c r="K9" s="12"/>
       <c r="L9"/>
       <c r="M9"/>
@@ -2003,7 +2003,7 @@
       <c r="U9" s="77"/>
     </row>
     <row r="10" spans="1:22" s="78" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="104"/>
+      <c r="A10" s="146"/>
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -2013,10 +2013,10 @@
       <c r="F10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="130"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="130"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
       <c r="K10" s="12"/>
       <c r="L10"/>
       <c r="M10"/>
@@ -2030,7 +2030,7 @@
       <c r="U10" s="77"/>
     </row>
     <row r="11" spans="1:22" s="78" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="104"/>
+      <c r="A11" s="146"/>
       <c r="B11" s="19" t="s">
         <v>16</v>
       </c>
@@ -2040,10 +2040,10 @@
       <c r="F11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="130"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
@@ -2057,7 +2057,7 @@
       <c r="U11" s="77"/>
     </row>
     <row r="12" spans="1:22" s="79" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="104"/>
+      <c r="A12" s="146"/>
       <c r="B12" s="19" t="s">
         <v>17</v>
       </c>
@@ -2067,10 +2067,10 @@
       <c r="F12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
       <c r="K12" s="12"/>
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
@@ -2085,7 +2085,7 @@
       <c r="V12" s="78"/>
     </row>
     <row r="13" spans="1:22" s="79" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="104"/>
+      <c r="A13" s="146"/>
       <c r="B13" s="23" t="s">
         <v>18</v>
       </c>
@@ -2095,10 +2095,10 @@
       <c r="F13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="152"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
       <c r="K13" s="21"/>
       <c r="L13" s="12"/>
       <c r="M13" s="21"/>
@@ -2113,7 +2113,7 @@
       <c r="V13" s="78"/>
     </row>
     <row r="14" spans="1:22" s="79" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="104"/>
+      <c r="A14" s="146"/>
       <c r="B14" s="19" t="s">
         <v>19</v>
       </c>
@@ -2123,10 +2123,10 @@
       <c r="F14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="152"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="122"/>
       <c r="K14" s="21"/>
       <c r="L14" s="12"/>
       <c r="M14" s="21"/>
@@ -2141,7 +2141,7 @@
       <c r="V14" s="78"/>
     </row>
     <row r="15" spans="1:22" s="79" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="104"/>
+      <c r="A15" s="146"/>
       <c r="B15" s="19" t="s">
         <v>20</v>
       </c>
@@ -2151,10 +2151,10 @@
       <c r="F15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="130"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
       <c r="K15" s="21"/>
       <c r="L15" s="12"/>
       <c r="M15" s="21"/>
@@ -2169,7 +2169,7 @@
       <c r="V15" s="78"/>
     </row>
     <row r="16" spans="1:22" s="79" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="104"/>
+      <c r="A16" s="146"/>
       <c r="B16" s="19" t="s">
         <v>21</v>
       </c>
@@ -2179,10 +2179,10 @@
       <c r="F16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
       <c r="K16" s="21"/>
       <c r="L16" s="12"/>
       <c r="M16" s="21"/>
@@ -2197,7 +2197,7 @@
       <c r="V16" s="78"/>
     </row>
     <row r="17" spans="1:23" s="79" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="104"/>
+      <c r="A17" s="146"/>
       <c r="B17" s="19"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -2221,7 +2221,7 @@
       <c r="V17" s="78"/>
     </row>
     <row r="18" spans="1:23" s="79" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="104"/>
+      <c r="A18" s="146"/>
       <c r="B18" s="19"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -2245,7 +2245,7 @@
       <c r="V18" s="78"/>
     </row>
     <row r="19" spans="1:23" s="79" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="104"/>
+      <c r="A19" s="146"/>
       <c r="B19" s="19"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -2269,7 +2269,7 @@
       <c r="V19" s="78"/>
     </row>
     <row r="20" spans="1:23" s="79" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="104"/>
+      <c r="A20" s="146"/>
       <c r="B20" s="28" t="s">
         <v>22</v>
       </c>
@@ -2296,23 +2296,23 @@
       <c r="W20" s="81"/>
     </row>
     <row r="21" spans="1:23" s="86" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="104"/>
+      <c r="A21" s="146"/>
       <c r="B21" s="32"/>
-      <c r="C21" s="135"/>
-      <c r="D21" s="135"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="135"/>
-      <c r="K21" s="135"/>
-      <c r="L21" s="135"/>
-      <c r="M21" s="135"/>
-      <c r="N21" s="135"/>
-      <c r="O21" s="135"/>
-      <c r="P21" s="135"/>
-      <c r="Q21" s="135"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="121"/>
+      <c r="K21" s="121"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="121"/>
+      <c r="N21" s="121"/>
+      <c r="O21" s="121"/>
+      <c r="P21" s="121"/>
+      <c r="Q21" s="121"/>
       <c r="R21" s="33"/>
       <c r="S21" s="82"/>
       <c r="T21" s="83"/>
@@ -2321,23 +2321,23 @@
       <c r="W21" s="85"/>
     </row>
     <row r="22" spans="1:23" s="86" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="104"/>
+      <c r="A22" s="146"/>
       <c r="B22" s="32"/>
-      <c r="C22" s="135"/>
-      <c r="D22" s="135"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="135"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="135"/>
-      <c r="L22" s="135"/>
-      <c r="M22" s="135"/>
-      <c r="N22" s="135"/>
-      <c r="O22" s="135"/>
-      <c r="P22" s="135"/>
-      <c r="Q22" s="135"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="121"/>
+      <c r="K22" s="121"/>
+      <c r="L22" s="121"/>
+      <c r="M22" s="121"/>
+      <c r="N22" s="121"/>
+      <c r="O22" s="121"/>
+      <c r="P22" s="121"/>
+      <c r="Q22" s="121"/>
       <c r="R22" s="33"/>
       <c r="S22" s="82"/>
       <c r="T22" s="83"/>
@@ -2346,23 +2346,23 @@
       <c r="W22" s="85"/>
     </row>
     <row r="23" spans="1:23" s="86" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="104"/>
+      <c r="A23" s="146"/>
       <c r="B23" s="32"/>
-      <c r="C23" s="135"/>
-      <c r="D23" s="135"/>
-      <c r="E23" s="135"/>
-      <c r="F23" s="135"/>
-      <c r="G23" s="135"/>
-      <c r="H23" s="135"/>
-      <c r="I23" s="135"/>
-      <c r="J23" s="135"/>
-      <c r="K23" s="135"/>
-      <c r="L23" s="135"/>
-      <c r="M23" s="135"/>
-      <c r="N23" s="135"/>
-      <c r="O23" s="135"/>
-      <c r="P23" s="135"/>
-      <c r="Q23" s="135"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="121"/>
+      <c r="J23" s="121"/>
+      <c r="K23" s="121"/>
+      <c r="L23" s="121"/>
+      <c r="M23" s="121"/>
+      <c r="N23" s="121"/>
+      <c r="O23" s="121"/>
+      <c r="P23" s="121"/>
+      <c r="Q23" s="121"/>
       <c r="R23" s="33"/>
       <c r="S23" s="82"/>
       <c r="T23" s="83"/>
@@ -2371,23 +2371,23 @@
       <c r="W23" s="85"/>
     </row>
     <row r="24" spans="1:23" s="86" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="104"/>
+      <c r="A24" s="146"/>
       <c r="B24" s="32"/>
-      <c r="C24" s="135"/>
-      <c r="D24" s="135"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="135"/>
-      <c r="H24" s="135"/>
-      <c r="I24" s="135"/>
-      <c r="J24" s="135"/>
-      <c r="K24" s="135"/>
-      <c r="L24" s="135"/>
-      <c r="M24" s="135"/>
-      <c r="N24" s="135"/>
-      <c r="O24" s="135"/>
-      <c r="P24" s="135"/>
-      <c r="Q24" s="135"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="121"/>
+      <c r="K24" s="121"/>
+      <c r="L24" s="121"/>
+      <c r="M24" s="121"/>
+      <c r="N24" s="121"/>
+      <c r="O24" s="121"/>
+      <c r="P24" s="121"/>
+      <c r="Q24" s="121"/>
       <c r="R24" s="33"/>
       <c r="S24" s="82"/>
       <c r="T24" s="83"/>
@@ -2396,23 +2396,23 @@
       <c r="W24" s="85"/>
     </row>
     <row r="25" spans="1:23" s="86" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="104"/>
+      <c r="A25" s="146"/>
       <c r="B25" s="32"/>
-      <c r="C25" s="135"/>
-      <c r="D25" s="135"/>
-      <c r="E25" s="135"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="135"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="135"/>
-      <c r="K25" s="135"/>
-      <c r="L25" s="135"/>
-      <c r="M25" s="135"/>
-      <c r="N25" s="135"/>
-      <c r="O25" s="135"/>
-      <c r="P25" s="135"/>
-      <c r="Q25" s="135"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="121"/>
+      <c r="I25" s="121"/>
+      <c r="J25" s="121"/>
+      <c r="K25" s="121"/>
+      <c r="L25" s="121"/>
+      <c r="M25" s="121"/>
+      <c r="N25" s="121"/>
+      <c r="O25" s="121"/>
+      <c r="P25" s="121"/>
+      <c r="Q25" s="121"/>
       <c r="R25" s="34"/>
       <c r="S25" s="82"/>
       <c r="T25" s="83"/>
@@ -2421,23 +2421,23 @@
       <c r="W25" s="85"/>
     </row>
     <row r="26" spans="1:23" s="86" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="104"/>
+      <c r="A26" s="146"/>
       <c r="B26" s="32"/>
-      <c r="C26" s="135"/>
-      <c r="D26" s="135"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="135"/>
-      <c r="H26" s="135"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="135"/>
-      <c r="K26" s="135"/>
-      <c r="L26" s="135"/>
-      <c r="M26" s="135"/>
-      <c r="N26" s="135"/>
-      <c r="O26" s="135"/>
-      <c r="P26" s="135"/>
-      <c r="Q26" s="135"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="121"/>
+      <c r="J26" s="121"/>
+      <c r="K26" s="121"/>
+      <c r="L26" s="121"/>
+      <c r="M26" s="121"/>
+      <c r="N26" s="121"/>
+      <c r="O26" s="121"/>
+      <c r="P26" s="121"/>
+      <c r="Q26" s="121"/>
       <c r="R26" s="33"/>
       <c r="S26" s="82"/>
       <c r="T26" s="83"/>
@@ -2446,23 +2446,23 @@
       <c r="W26" s="85"/>
     </row>
     <row r="27" spans="1:23" s="86" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="104"/>
+      <c r="A27" s="146"/>
       <c r="B27" s="32"/>
-      <c r="C27" s="135"/>
-      <c r="D27" s="135"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="135"/>
-      <c r="K27" s="135"/>
-      <c r="L27" s="135"/>
-      <c r="M27" s="135"/>
-      <c r="N27" s="135"/>
-      <c r="O27" s="135"/>
-      <c r="P27" s="135"/>
-      <c r="Q27" s="135"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="121"/>
+      <c r="J27" s="121"/>
+      <c r="K27" s="121"/>
+      <c r="L27" s="121"/>
+      <c r="M27" s="121"/>
+      <c r="N27" s="121"/>
+      <c r="O27" s="121"/>
+      <c r="P27" s="121"/>
+      <c r="Q27" s="121"/>
       <c r="R27" s="33"/>
       <c r="S27" s="82"/>
       <c r="T27" s="83"/>
@@ -2471,23 +2471,23 @@
       <c r="W27" s="85"/>
     </row>
     <row r="28" spans="1:23" s="86" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="104"/>
+      <c r="A28" s="146"/>
       <c r="B28" s="32"/>
-      <c r="C28" s="135"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="135"/>
-      <c r="H28" s="135"/>
-      <c r="I28" s="135"/>
-      <c r="J28" s="135"/>
-      <c r="K28" s="135"/>
-      <c r="L28" s="135"/>
-      <c r="M28" s="135"/>
-      <c r="N28" s="135"/>
-      <c r="O28" s="135"/>
-      <c r="P28" s="135"/>
-      <c r="Q28" s="135"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="121"/>
+      <c r="K28" s="121"/>
+      <c r="L28" s="121"/>
+      <c r="M28" s="121"/>
+      <c r="N28" s="121"/>
+      <c r="O28" s="121"/>
+      <c r="P28" s="121"/>
+      <c r="Q28" s="121"/>
       <c r="R28" s="33"/>
       <c r="S28" s="82"/>
       <c r="T28" s="83"/>
@@ -2496,7 +2496,7 @@
       <c r="W28" s="85"/>
     </row>
     <row r="29" spans="1:23" s="86" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="104"/>
+      <c r="A29" s="146"/>
       <c r="B29" s="32"/>
       <c r="C29" s="96"/>
       <c r="D29" s="96"/>
@@ -2521,7 +2521,7 @@
       <c r="W29" s="85"/>
     </row>
     <row r="30" spans="1:23" s="79" customFormat="1" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="104"/>
+      <c r="A30" s="146"/>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
@@ -2546,7 +2546,7 @@
       <c r="W30" s="81"/>
     </row>
     <row r="31" spans="1:23" s="79" customFormat="1" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="104"/>
+      <c r="A31" s="146"/>
       <c r="B31" s="40" t="s">
         <v>23</v>
       </c>
@@ -2573,23 +2573,23 @@
       <c r="W31" s="81"/>
     </row>
     <row r="32" spans="1:23" s="88" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="104"/>
+      <c r="A32" s="146"/>
       <c r="B32" s="45"/>
-      <c r="C32" s="135"/>
-      <c r="D32" s="135"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="135"/>
-      <c r="H32" s="135"/>
-      <c r="I32" s="135"/>
-      <c r="J32" s="135"/>
-      <c r="K32" s="135"/>
-      <c r="L32" s="135"/>
-      <c r="M32" s="135"/>
-      <c r="N32" s="135"/>
-      <c r="O32" s="135"/>
-      <c r="P32" s="135"/>
-      <c r="Q32" s="135"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="121"/>
+      <c r="F32" s="121"/>
+      <c r="G32" s="121"/>
+      <c r="H32" s="121"/>
+      <c r="I32" s="121"/>
+      <c r="J32" s="121"/>
+      <c r="K32" s="121"/>
+      <c r="L32" s="121"/>
+      <c r="M32" s="121"/>
+      <c r="N32" s="121"/>
+      <c r="O32" s="121"/>
+      <c r="P32" s="121"/>
+      <c r="Q32" s="121"/>
       <c r="R32" s="46"/>
       <c r="S32" s="87"/>
       <c r="T32" s="87"/>
@@ -2597,23 +2597,23 @@
       <c r="V32" s="87"/>
     </row>
     <row r="33" spans="1:22" s="88" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="104"/>
+      <c r="A33" s="146"/>
       <c r="B33" s="45"/>
-      <c r="C33" s="135"/>
-      <c r="D33" s="135"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="135"/>
-      <c r="G33" s="135"/>
-      <c r="H33" s="135"/>
-      <c r="I33" s="135"/>
-      <c r="J33" s="135"/>
-      <c r="K33" s="135"/>
-      <c r="L33" s="135"/>
-      <c r="M33" s="135"/>
-      <c r="N33" s="135"/>
-      <c r="O33" s="135"/>
-      <c r="P33" s="135"/>
-      <c r="Q33" s="135"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="121"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="121"/>
+      <c r="H33" s="121"/>
+      <c r="I33" s="121"/>
+      <c r="J33" s="121"/>
+      <c r="K33" s="121"/>
+      <c r="L33" s="121"/>
+      <c r="M33" s="121"/>
+      <c r="N33" s="121"/>
+      <c r="O33" s="121"/>
+      <c r="P33" s="121"/>
+      <c r="Q33" s="121"/>
       <c r="R33" s="46"/>
       <c r="S33" s="87"/>
       <c r="T33" s="87"/>
@@ -2621,23 +2621,23 @@
       <c r="V33" s="87"/>
     </row>
     <row r="34" spans="1:22" s="88" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="104"/>
+      <c r="A34" s="146"/>
       <c r="B34" s="45"/>
-      <c r="C34" s="135"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="135"/>
-      <c r="F34" s="135"/>
-      <c r="G34" s="135"/>
-      <c r="H34" s="135"/>
-      <c r="I34" s="135"/>
-      <c r="J34" s="135"/>
-      <c r="K34" s="135"/>
-      <c r="L34" s="135"/>
-      <c r="M34" s="135"/>
-      <c r="N34" s="135"/>
-      <c r="O34" s="135"/>
-      <c r="P34" s="135"/>
-      <c r="Q34" s="135"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="121"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="121"/>
+      <c r="H34" s="121"/>
+      <c r="I34" s="121"/>
+      <c r="J34" s="121"/>
+      <c r="K34" s="121"/>
+      <c r="L34" s="121"/>
+      <c r="M34" s="121"/>
+      <c r="N34" s="121"/>
+      <c r="O34" s="121"/>
+      <c r="P34" s="121"/>
+      <c r="Q34" s="121"/>
       <c r="R34" s="46"/>
       <c r="S34" s="87"/>
       <c r="T34" s="87"/>
@@ -2645,23 +2645,23 @@
       <c r="V34" s="87"/>
     </row>
     <row r="35" spans="1:22" s="88" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="104"/>
+      <c r="A35" s="146"/>
       <c r="B35" s="45"/>
-      <c r="C35" s="135"/>
-      <c r="D35" s="135"/>
-      <c r="E35" s="135"/>
-      <c r="F35" s="135"/>
-      <c r="G35" s="135"/>
-      <c r="H35" s="135"/>
-      <c r="I35" s="135"/>
-      <c r="J35" s="135"/>
-      <c r="K35" s="135"/>
-      <c r="L35" s="135"/>
-      <c r="M35" s="135"/>
-      <c r="N35" s="135"/>
-      <c r="O35" s="135"/>
-      <c r="P35" s="135"/>
-      <c r="Q35" s="135"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="121"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="121"/>
+      <c r="H35" s="121"/>
+      <c r="I35" s="121"/>
+      <c r="J35" s="121"/>
+      <c r="K35" s="121"/>
+      <c r="L35" s="121"/>
+      <c r="M35" s="121"/>
+      <c r="N35" s="121"/>
+      <c r="O35" s="121"/>
+      <c r="P35" s="121"/>
+      <c r="Q35" s="121"/>
       <c r="R35" s="46"/>
       <c r="S35" s="87"/>
       <c r="T35" s="87"/>
@@ -2669,23 +2669,23 @@
       <c r="V35" s="87"/>
     </row>
     <row r="36" spans="1:22" s="88" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="104"/>
+      <c r="A36" s="146"/>
       <c r="B36" s="45"/>
-      <c r="C36" s="135"/>
-      <c r="D36" s="135"/>
-      <c r="E36" s="135"/>
-      <c r="F36" s="135"/>
-      <c r="G36" s="135"/>
-      <c r="H36" s="135"/>
-      <c r="I36" s="135"/>
-      <c r="J36" s="135"/>
-      <c r="K36" s="135"/>
-      <c r="L36" s="135"/>
-      <c r="M36" s="135"/>
-      <c r="N36" s="135"/>
-      <c r="O36" s="135"/>
-      <c r="P36" s="135"/>
-      <c r="Q36" s="135"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="121"/>
+      <c r="F36" s="121"/>
+      <c r="G36" s="121"/>
+      <c r="H36" s="121"/>
+      <c r="I36" s="121"/>
+      <c r="J36" s="121"/>
+      <c r="K36" s="121"/>
+      <c r="L36" s="121"/>
+      <c r="M36" s="121"/>
+      <c r="N36" s="121"/>
+      <c r="O36" s="121"/>
+      <c r="P36" s="121"/>
+      <c r="Q36" s="121"/>
       <c r="R36" s="46"/>
       <c r="S36" s="87"/>
       <c r="T36" s="87"/>
@@ -2693,7 +2693,7 @@
       <c r="V36" s="87"/>
     </row>
     <row r="37" spans="1:22" s="79" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="104"/>
+      <c r="A37" s="146"/>
       <c r="B37" s="48"/>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
@@ -2717,64 +2717,64 @@
       <c r="V37" s="78"/>
     </row>
     <row r="38" spans="1:22" s="79" customFormat="1" ht="35.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="104"/>
-      <c r="B38" s="109" t="s">
+      <c r="A38" s="146"/>
+      <c r="B38" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="110"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="110"/>
-      <c r="I38" s="110"/>
-      <c r="J38" s="110"/>
-      <c r="K38" s="110"/>
-      <c r="L38" s="110"/>
-      <c r="M38" s="110"/>
-      <c r="N38" s="110"/>
-      <c r="O38" s="110"/>
-      <c r="P38" s="110"/>
-      <c r="Q38" s="110"/>
-      <c r="R38" s="111"/>
+      <c r="C38" s="150"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
+      <c r="N38" s="150"/>
+      <c r="O38" s="150"/>
+      <c r="P38" s="150"/>
+      <c r="Q38" s="150"/>
+      <c r="R38" s="151"/>
       <c r="S38" s="78"/>
       <c r="T38" s="78"/>
       <c r="U38" s="78"/>
       <c r="V38" s="78"/>
     </row>
     <row r="39" spans="1:22" s="90" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="104"/>
-      <c r="B39" s="112" t="s">
+      <c r="A39" s="146"/>
+      <c r="B39" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="114" t="s">
+      <c r="C39" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="115"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="114" t="s">
+      <c r="D39" s="155"/>
+      <c r="E39" s="156"/>
+      <c r="F39" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="G39" s="116"/>
-      <c r="H39" s="120" t="s">
+      <c r="G39" s="156"/>
+      <c r="H39" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="I39" s="121"/>
-      <c r="J39" s="121"/>
-      <c r="K39" s="122"/>
-      <c r="L39" s="114" t="s">
+      <c r="I39" s="132"/>
+      <c r="J39" s="132"/>
+      <c r="K39" s="133"/>
+      <c r="L39" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="M39" s="115"/>
-      <c r="N39" s="116"/>
-      <c r="O39" s="114" t="s">
+      <c r="M39" s="155"/>
+      <c r="N39" s="156"/>
+      <c r="O39" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="P39" s="116"/>
-      <c r="Q39" s="123" t="s">
+      <c r="P39" s="156"/>
+      <c r="Q39" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="R39" s="125" t="s">
+      <c r="R39" s="162" t="s">
         <v>32</v>
       </c>
       <c r="S39" s="89"/>
@@ -2783,48 +2783,48 @@
       <c r="V39" s="89"/>
     </row>
     <row r="40" spans="1:22" s="90" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="104"/>
-      <c r="B40" s="113"/>
-      <c r="C40" s="117"/>
-      <c r="D40" s="118"/>
-      <c r="E40" s="119"/>
-      <c r="F40" s="117"/>
-      <c r="G40" s="119"/>
-      <c r="H40" s="120" t="s">
+      <c r="A40" s="146"/>
+      <c r="B40" s="153"/>
+      <c r="C40" s="157"/>
+      <c r="D40" s="158"/>
+      <c r="E40" s="159"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="159"/>
+      <c r="H40" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="I40" s="121"/>
-      <c r="J40" s="121"/>
-      <c r="K40" s="122"/>
-      <c r="L40" s="117"/>
-      <c r="M40" s="118"/>
-      <c r="N40" s="119"/>
-      <c r="O40" s="117"/>
-      <c r="P40" s="119"/>
-      <c r="Q40" s="124"/>
-      <c r="R40" s="126"/>
+      <c r="I40" s="132"/>
+      <c r="J40" s="132"/>
+      <c r="K40" s="133"/>
+      <c r="L40" s="157"/>
+      <c r="M40" s="158"/>
+      <c r="N40" s="159"/>
+      <c r="O40" s="157"/>
+      <c r="P40" s="159"/>
+      <c r="Q40" s="161"/>
+      <c r="R40" s="163"/>
       <c r="S40" s="89"/>
       <c r="T40" s="89"/>
       <c r="U40" s="89"/>
       <c r="V40" s="89"/>
     </row>
     <row r="41" spans="1:22" s="90" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="104"/>
+      <c r="A41" s="146"/>
       <c r="B41" s="49"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="106"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="142"/>
-      <c r="I41" s="143"/>
-      <c r="J41" s="143"/>
-      <c r="K41" s="144"/>
-      <c r="L41" s="108"/>
-      <c r="M41" s="108"/>
-      <c r="N41" s="108"/>
-      <c r="O41" s="140"/>
-      <c r="P41" s="141"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="134"/>
+      <c r="I41" s="135"/>
+      <c r="J41" s="135"/>
+      <c r="K41" s="136"/>
+      <c r="L41" s="114"/>
+      <c r="M41" s="114"/>
+      <c r="N41" s="114"/>
+      <c r="O41" s="112"/>
+      <c r="P41" s="113"/>
       <c r="Q41" s="50"/>
       <c r="R41" s="51"/>
       <c r="S41" s="89"/>
@@ -2833,22 +2833,22 @@
       <c r="V41" s="89"/>
     </row>
     <row r="42" spans="1:22" s="90" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="104"/>
+      <c r="A42" s="146"/>
       <c r="B42" s="52"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="106"/>
-      <c r="E42" s="106"/>
-      <c r="F42" s="127"/>
-      <c r="G42" s="127"/>
-      <c r="H42" s="145"/>
-      <c r="I42" s="146"/>
-      <c r="J42" s="146"/>
-      <c r="K42" s="147"/>
-      <c r="L42" s="108"/>
-      <c r="M42" s="108"/>
-      <c r="N42" s="108"/>
-      <c r="O42" s="140"/>
-      <c r="P42" s="141"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="118"/>
+      <c r="G42" s="118"/>
+      <c r="H42" s="137"/>
+      <c r="I42" s="138"/>
+      <c r="J42" s="138"/>
+      <c r="K42" s="139"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="114"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="112"/>
+      <c r="P42" s="113"/>
       <c r="Q42" s="53"/>
       <c r="R42" s="54"/>
       <c r="S42" s="89"/>
@@ -2857,22 +2857,22 @@
       <c r="V42" s="89"/>
     </row>
     <row r="43" spans="1:22" s="90" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="104"/>
+      <c r="A43" s="146"/>
       <c r="B43" s="52"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="106"/>
-      <c r="E43" s="106"/>
-      <c r="F43" s="127"/>
-      <c r="G43" s="127"/>
-      <c r="H43" s="145"/>
-      <c r="I43" s="146"/>
-      <c r="J43" s="146"/>
-      <c r="K43" s="147"/>
-      <c r="L43" s="108"/>
-      <c r="M43" s="108"/>
-      <c r="N43" s="108"/>
-      <c r="O43" s="140"/>
-      <c r="P43" s="141"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="118"/>
+      <c r="G43" s="118"/>
+      <c r="H43" s="137"/>
+      <c r="I43" s="138"/>
+      <c r="J43" s="138"/>
+      <c r="K43" s="139"/>
+      <c r="L43" s="114"/>
+      <c r="M43" s="114"/>
+      <c r="N43" s="114"/>
+      <c r="O43" s="112"/>
+      <c r="P43" s="113"/>
       <c r="Q43" s="53"/>
       <c r="R43" s="54"/>
       <c r="S43" s="89"/>
@@ -2881,22 +2881,22 @@
       <c r="V43" s="89"/>
     </row>
     <row r="44" spans="1:22" s="90" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="104"/>
+      <c r="A44" s="146"/>
       <c r="B44" s="52"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="106"/>
-      <c r="E44" s="106"/>
-      <c r="F44" s="127"/>
-      <c r="G44" s="127"/>
-      <c r="H44" s="145"/>
-      <c r="I44" s="146"/>
-      <c r="J44" s="146"/>
-      <c r="K44" s="147"/>
-      <c r="L44" s="108"/>
-      <c r="M44" s="108"/>
-      <c r="N44" s="108"/>
-      <c r="O44" s="140"/>
-      <c r="P44" s="141"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="137"/>
+      <c r="I44" s="138"/>
+      <c r="J44" s="138"/>
+      <c r="K44" s="139"/>
+      <c r="L44" s="114"/>
+      <c r="M44" s="114"/>
+      <c r="N44" s="114"/>
+      <c r="O44" s="112"/>
+      <c r="P44" s="113"/>
       <c r="Q44" s="53"/>
       <c r="R44" s="54"/>
       <c r="S44" s="89"/>
@@ -2905,22 +2905,22 @@
       <c r="V44" s="89"/>
     </row>
     <row r="45" spans="1:22" s="90" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="104"/>
+      <c r="A45" s="146"/>
       <c r="B45" s="52"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="106"/>
-      <c r="E45" s="106"/>
-      <c r="F45" s="127"/>
-      <c r="G45" s="127"/>
-      <c r="H45" s="145"/>
-      <c r="I45" s="146"/>
-      <c r="J45" s="146"/>
-      <c r="K45" s="147"/>
-      <c r="L45" s="108"/>
-      <c r="M45" s="108"/>
-      <c r="N45" s="108"/>
-      <c r="O45" s="140"/>
-      <c r="P45" s="141"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="118"/>
+      <c r="G45" s="118"/>
+      <c r="H45" s="137"/>
+      <c r="I45" s="138"/>
+      <c r="J45" s="138"/>
+      <c r="K45" s="139"/>
+      <c r="L45" s="114"/>
+      <c r="M45" s="114"/>
+      <c r="N45" s="114"/>
+      <c r="O45" s="112"/>
+      <c r="P45" s="113"/>
       <c r="Q45" s="53"/>
       <c r="R45" s="54"/>
       <c r="S45" s="89"/>
@@ -2929,22 +2929,22 @@
       <c r="V45" s="89"/>
     </row>
     <row r="46" spans="1:22" s="90" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="104"/>
+      <c r="A46" s="146"/>
       <c r="B46" s="52"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="106"/>
-      <c r="E46" s="106"/>
-      <c r="F46" s="127"/>
-      <c r="G46" s="127"/>
-      <c r="H46" s="145"/>
-      <c r="I46" s="146"/>
-      <c r="J46" s="146"/>
-      <c r="K46" s="147"/>
-      <c r="L46" s="108"/>
-      <c r="M46" s="108"/>
-      <c r="N46" s="108"/>
-      <c r="O46" s="140"/>
-      <c r="P46" s="141"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="115"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="118"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="137"/>
+      <c r="I46" s="138"/>
+      <c r="J46" s="138"/>
+      <c r="K46" s="139"/>
+      <c r="L46" s="114"/>
+      <c r="M46" s="114"/>
+      <c r="N46" s="114"/>
+      <c r="O46" s="112"/>
+      <c r="P46" s="113"/>
       <c r="Q46" s="53"/>
       <c r="R46" s="54"/>
       <c r="S46" s="89"/>
@@ -2953,22 +2953,22 @@
       <c r="V46" s="89"/>
     </row>
     <row r="47" spans="1:22" s="90" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="104"/>
+      <c r="A47" s="146"/>
       <c r="B47" s="52"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="106"/>
-      <c r="E47" s="106"/>
-      <c r="F47" s="127"/>
-      <c r="G47" s="127"/>
-      <c r="H47" s="145"/>
-      <c r="I47" s="146"/>
-      <c r="J47" s="146"/>
-      <c r="K47" s="147"/>
-      <c r="L47" s="108"/>
-      <c r="M47" s="108"/>
-      <c r="N47" s="108"/>
-      <c r="O47" s="140"/>
-      <c r="P47" s="141"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="115"/>
+      <c r="E47" s="115"/>
+      <c r="F47" s="118"/>
+      <c r="G47" s="118"/>
+      <c r="H47" s="137"/>
+      <c r="I47" s="138"/>
+      <c r="J47" s="138"/>
+      <c r="K47" s="139"/>
+      <c r="L47" s="114"/>
+      <c r="M47" s="114"/>
+      <c r="N47" s="114"/>
+      <c r="O47" s="112"/>
+      <c r="P47" s="113"/>
       <c r="Q47" s="53"/>
       <c r="R47" s="54"/>
       <c r="S47" s="89"/>
@@ -2977,22 +2977,22 @@
       <c r="V47" s="89"/>
     </row>
     <row r="48" spans="1:22" s="90" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="104"/>
+      <c r="A48" s="146"/>
       <c r="B48" s="55"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="106"/>
-      <c r="E48" s="106"/>
-      <c r="F48" s="128"/>
-      <c r="G48" s="128"/>
-      <c r="H48" s="145"/>
-      <c r="I48" s="146"/>
-      <c r="J48" s="146"/>
-      <c r="K48" s="147"/>
-      <c r="L48" s="129"/>
-      <c r="M48" s="129"/>
-      <c r="N48" s="129"/>
-      <c r="O48" s="140"/>
-      <c r="P48" s="141"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="115"/>
+      <c r="F48" s="116"/>
+      <c r="G48" s="116"/>
+      <c r="H48" s="137"/>
+      <c r="I48" s="138"/>
+      <c r="J48" s="138"/>
+      <c r="K48" s="139"/>
+      <c r="L48" s="117"/>
+      <c r="M48" s="117"/>
+      <c r="N48" s="117"/>
+      <c r="O48" s="112"/>
+      <c r="P48" s="113"/>
       <c r="Q48" s="56"/>
       <c r="R48" s="57"/>
       <c r="S48" s="89"/>
@@ -3001,22 +3001,22 @@
       <c r="V48" s="89"/>
     </row>
     <row r="49" spans="1:22" s="90" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="104"/>
+      <c r="A49" s="146"/>
       <c r="B49" s="55"/>
-      <c r="C49" s="106"/>
-      <c r="D49" s="106"/>
-      <c r="E49" s="106"/>
-      <c r="F49" s="128"/>
-      <c r="G49" s="128"/>
-      <c r="H49" s="145"/>
-      <c r="I49" s="146"/>
-      <c r="J49" s="146"/>
-      <c r="K49" s="147"/>
-      <c r="L49" s="129"/>
-      <c r="M49" s="129"/>
-      <c r="N49" s="129"/>
-      <c r="O49" s="140"/>
-      <c r="P49" s="141"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="115"/>
+      <c r="E49" s="115"/>
+      <c r="F49" s="116"/>
+      <c r="G49" s="116"/>
+      <c r="H49" s="137"/>
+      <c r="I49" s="138"/>
+      <c r="J49" s="138"/>
+      <c r="K49" s="139"/>
+      <c r="L49" s="117"/>
+      <c r="M49" s="117"/>
+      <c r="N49" s="117"/>
+      <c r="O49" s="112"/>
+      <c r="P49" s="113"/>
       <c r="Q49" s="56"/>
       <c r="R49" s="57"/>
       <c r="S49" s="89"/>
@@ -3025,22 +3025,22 @@
       <c r="V49" s="89"/>
     </row>
     <row r="50" spans="1:22" s="90" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="104"/>
+      <c r="A50" s="146"/>
       <c r="B50" s="52"/>
-      <c r="C50" s="106"/>
-      <c r="D50" s="106"/>
-      <c r="E50" s="106"/>
-      <c r="F50" s="127"/>
-      <c r="G50" s="127"/>
-      <c r="H50" s="145"/>
-      <c r="I50" s="146"/>
-      <c r="J50" s="146"/>
-      <c r="K50" s="147"/>
-      <c r="L50" s="108"/>
-      <c r="M50" s="108"/>
-      <c r="N50" s="108"/>
-      <c r="O50" s="140"/>
-      <c r="P50" s="141"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="115"/>
+      <c r="E50" s="115"/>
+      <c r="F50" s="118"/>
+      <c r="G50" s="118"/>
+      <c r="H50" s="137"/>
+      <c r="I50" s="138"/>
+      <c r="J50" s="138"/>
+      <c r="K50" s="139"/>
+      <c r="L50" s="114"/>
+      <c r="M50" s="114"/>
+      <c r="N50" s="114"/>
+      <c r="O50" s="112"/>
+      <c r="P50" s="113"/>
       <c r="Q50" s="58"/>
       <c r="R50" s="54"/>
       <c r="S50" s="89"/>
@@ -3049,22 +3049,22 @@
       <c r="V50" s="89"/>
     </row>
     <row r="51" spans="1:22" s="90" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="104"/>
+      <c r="A51" s="146"/>
       <c r="B51" s="52"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="106"/>
-      <c r="E51" s="106"/>
-      <c r="F51" s="127"/>
-      <c r="G51" s="127"/>
-      <c r="H51" s="145"/>
-      <c r="I51" s="146"/>
-      <c r="J51" s="146"/>
-      <c r="K51" s="147"/>
-      <c r="L51" s="108"/>
-      <c r="M51" s="108"/>
-      <c r="N51" s="108"/>
-      <c r="O51" s="140"/>
-      <c r="P51" s="141"/>
+      <c r="C51" s="115"/>
+      <c r="D51" s="115"/>
+      <c r="E51" s="115"/>
+      <c r="F51" s="118"/>
+      <c r="G51" s="118"/>
+      <c r="H51" s="137"/>
+      <c r="I51" s="138"/>
+      <c r="J51" s="138"/>
+      <c r="K51" s="139"/>
+      <c r="L51" s="114"/>
+      <c r="M51" s="114"/>
+      <c r="N51" s="114"/>
+      <c r="O51" s="112"/>
+      <c r="P51" s="113"/>
       <c r="Q51" s="58"/>
       <c r="R51" s="54"/>
       <c r="S51" s="89"/>
@@ -3073,22 +3073,22 @@
       <c r="V51" s="89"/>
     </row>
     <row r="52" spans="1:22" s="90" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="104"/>
+      <c r="A52" s="146"/>
       <c r="B52" s="59"/>
-      <c r="C52" s="106"/>
-      <c r="D52" s="106"/>
-      <c r="E52" s="106"/>
-      <c r="F52" s="136"/>
-      <c r="G52" s="136"/>
-      <c r="H52" s="148"/>
-      <c r="I52" s="149"/>
-      <c r="J52" s="149"/>
-      <c r="K52" s="150"/>
-      <c r="L52" s="137"/>
-      <c r="M52" s="137"/>
-      <c r="N52" s="137"/>
-      <c r="O52" s="138"/>
-      <c r="P52" s="139"/>
+      <c r="C52" s="115"/>
+      <c r="D52" s="115"/>
+      <c r="E52" s="115"/>
+      <c r="F52" s="127"/>
+      <c r="G52" s="127"/>
+      <c r="H52" s="140"/>
+      <c r="I52" s="141"/>
+      <c r="J52" s="141"/>
+      <c r="K52" s="142"/>
+      <c r="L52" s="128"/>
+      <c r="M52" s="128"/>
+      <c r="N52" s="128"/>
+      <c r="O52" s="129"/>
+      <c r="P52" s="130"/>
       <c r="Q52" s="60"/>
       <c r="R52" s="61"/>
       <c r="S52" s="89"/>
@@ -3097,19 +3097,19 @@
       <c r="V52" s="89"/>
     </row>
     <row r="53" spans="1:22" s="90" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="104"/>
+      <c r="A53" s="146"/>
       <c r="B53" s="62"/>
-      <c r="C53" s="131" t="s">
+      <c r="C53" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="D53" s="131"/>
-      <c r="E53" s="131"/>
+      <c r="D53" s="123"/>
+      <c r="E53" s="123"/>
       <c r="F53" s="63"/>
-      <c r="G53" s="132" t="s">
+      <c r="G53" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="H53" s="132"/>
-      <c r="I53" s="132"/>
+      <c r="H53" s="124"/>
+      <c r="I53" s="124"/>
       <c r="J53" s="64"/>
       <c r="K53" s="65"/>
       <c r="L53" s="65"/>
@@ -3125,14 +3125,14 @@
       <c r="V53" s="89"/>
     </row>
     <row r="54" spans="1:22" s="89" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="105"/>
+      <c r="A54" s="147"/>
       <c r="B54" s="68"/>
-      <c r="C54" s="133"/>
-      <c r="D54" s="133"/>
-      <c r="E54" s="133"/>
-      <c r="F54" s="133"/>
-      <c r="G54" s="134"/>
-      <c r="H54" s="134"/>
+      <c r="C54" s="125"/>
+      <c r="D54" s="125"/>
+      <c r="E54" s="125"/>
+      <c r="F54" s="125"/>
+      <c r="G54" s="126"/>
+      <c r="H54" s="126"/>
       <c r="I54" s="69"/>
       <c r="J54" s="69"/>
       <c r="K54" s="70"/>
@@ -3151,73 +3151,73 @@
     </row>
     <row r="56" spans="1:22" s="72" customFormat="1" ht="11.25" x14ac:dyDescent="0.25"/>
     <row r="57" spans="1:22" s="76" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="153" t="s">
+      <c r="B57" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="154"/>
-      <c r="D57" s="155"/>
-      <c r="E57" s="153" t="s">
+      <c r="C57" s="102"/>
+      <c r="D57" s="103"/>
+      <c r="E57" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="F57" s="154"/>
-      <c r="G57" s="155"/>
-      <c r="H57" s="153" t="s">
+      <c r="F57" s="102"/>
+      <c r="G57" s="103"/>
+      <c r="H57" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="I57" s="154"/>
-      <c r="J57" s="155"/>
-      <c r="K57" s="153" t="s">
+      <c r="I57" s="102"/>
+      <c r="J57" s="103"/>
+      <c r="K57" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="L57" s="154"/>
-      <c r="M57" s="155"/>
-      <c r="N57" s="153" t="s">
+      <c r="L57" s="102"/>
+      <c r="M57" s="103"/>
+      <c r="N57" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="O57" s="154"/>
-      <c r="P57" s="155"/>
+      <c r="O57" s="102"/>
+      <c r="P57" s="103"/>
       <c r="S57" s="72"/>
       <c r="T57" s="72"/>
       <c r="U57" s="72"/>
       <c r="V57" s="72"/>
     </row>
     <row r="58" spans="1:22" s="76" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="156"/>
-      <c r="C58" s="157"/>
-      <c r="D58" s="158"/>
-      <c r="E58" s="156"/>
-      <c r="F58" s="157"/>
-      <c r="G58" s="158"/>
-      <c r="H58" s="156"/>
-      <c r="I58" s="157"/>
-      <c r="J58" s="158"/>
-      <c r="K58" s="156"/>
-      <c r="L58" s="157"/>
-      <c r="M58" s="158"/>
-      <c r="N58" s="156"/>
-      <c r="O58" s="157"/>
-      <c r="P58" s="158"/>
+      <c r="B58" s="104"/>
+      <c r="C58" s="105"/>
+      <c r="D58" s="106"/>
+      <c r="E58" s="104"/>
+      <c r="F58" s="105"/>
+      <c r="G58" s="106"/>
+      <c r="H58" s="104"/>
+      <c r="I58" s="105"/>
+      <c r="J58" s="106"/>
+      <c r="K58" s="104"/>
+      <c r="L58" s="105"/>
+      <c r="M58" s="106"/>
+      <c r="N58" s="104"/>
+      <c r="O58" s="105"/>
+      <c r="P58" s="106"/>
       <c r="S58" s="72"/>
       <c r="T58" s="72"/>
       <c r="U58" s="72"/>
       <c r="V58" s="72"/>
     </row>
     <row r="59" spans="1:22" s="76" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="159"/>
-      <c r="C59" s="160"/>
-      <c r="D59" s="161"/>
-      <c r="E59" s="159"/>
-      <c r="F59" s="160"/>
-      <c r="G59" s="161"/>
-      <c r="H59" s="159"/>
-      <c r="I59" s="160"/>
-      <c r="J59" s="161"/>
-      <c r="K59" s="159"/>
-      <c r="L59" s="160"/>
-      <c r="M59" s="161"/>
-      <c r="N59" s="159"/>
-      <c r="O59" s="160"/>
-      <c r="P59" s="161"/>
+      <c r="B59" s="107"/>
+      <c r="C59" s="108"/>
+      <c r="D59" s="109"/>
+      <c r="E59" s="107"/>
+      <c r="F59" s="108"/>
+      <c r="G59" s="109"/>
+      <c r="H59" s="107"/>
+      <c r="I59" s="108"/>
+      <c r="J59" s="109"/>
+      <c r="K59" s="107"/>
+      <c r="L59" s="108"/>
+      <c r="M59" s="109"/>
+      <c r="N59" s="107"/>
+      <c r="O59" s="108"/>
+      <c r="P59" s="109"/>
       <c r="S59" s="72"/>
       <c r="T59" s="72"/>
       <c r="U59" s="72"/>
@@ -3227,59 +3227,59 @@
       <c r="B60" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="162"/>
-      <c r="D60" s="163"/>
+      <c r="C60" s="110"/>
+      <c r="D60" s="111"/>
       <c r="E60" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F60" s="162"/>
-      <c r="G60" s="163"/>
+      <c r="F60" s="110"/>
+      <c r="G60" s="111"/>
       <c r="H60" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I60" s="162"/>
-      <c r="J60" s="163"/>
+      <c r="I60" s="110"/>
+      <c r="J60" s="111"/>
       <c r="K60" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="L60" s="162"/>
-      <c r="M60" s="163"/>
+      <c r="L60" s="110"/>
+      <c r="M60" s="111"/>
       <c r="N60" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="O60" s="162"/>
-      <c r="P60" s="163"/>
+      <c r="O60" s="110"/>
+      <c r="P60" s="111"/>
       <c r="S60" s="72"/>
       <c r="T60" s="72"/>
       <c r="U60" s="72"/>
       <c r="V60" s="72"/>
     </row>
     <row r="61" spans="1:22" s="76" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="153" t="s">
+      <c r="B61" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="154"/>
-      <c r="D61" s="155"/>
-      <c r="E61" s="153" t="s">
+      <c r="C61" s="102"/>
+      <c r="D61" s="103"/>
+      <c r="E61" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="F61" s="154"/>
-      <c r="G61" s="155"/>
-      <c r="H61" s="153" t="s">
+      <c r="F61" s="102"/>
+      <c r="G61" s="103"/>
+      <c r="H61" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="I61" s="154"/>
-      <c r="J61" s="155"/>
-      <c r="K61" s="153" t="s">
+      <c r="I61" s="102"/>
+      <c r="J61" s="103"/>
+      <c r="K61" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="L61" s="154"/>
-      <c r="M61" s="155"/>
-      <c r="N61" s="153" t="s">
+      <c r="L61" s="102"/>
+      <c r="M61" s="103"/>
+      <c r="N61" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="O61" s="154"/>
-      <c r="P61" s="155"/>
+      <c r="O61" s="102"/>
+      <c r="P61" s="103"/>
       <c r="S61" s="72"/>
       <c r="T61" s="72"/>
       <c r="U61" s="72"/>
@@ -3292,40 +3292,40 @@
       <c r="V62" s="72"/>
     </row>
     <row r="63" spans="1:22" s="76" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="153" t="s">
+      <c r="B63" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="C63" s="154"/>
-      <c r="D63" s="155"/>
-      <c r="E63" s="153" t="s">
+      <c r="C63" s="102"/>
+      <c r="D63" s="103"/>
+      <c r="E63" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="F63" s="154"/>
-      <c r="G63" s="155"/>
+      <c r="F63" s="102"/>
+      <c r="G63" s="103"/>
       <c r="S63" s="72"/>
       <c r="T63" s="72"/>
       <c r="U63" s="72"/>
       <c r="V63" s="72"/>
     </row>
     <row r="64" spans="1:22" s="76" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="156"/>
-      <c r="C64" s="157"/>
-      <c r="D64" s="158"/>
-      <c r="E64" s="156"/>
-      <c r="F64" s="157"/>
-      <c r="G64" s="158"/>
+      <c r="B64" s="104"/>
+      <c r="C64" s="105"/>
+      <c r="D64" s="106"/>
+      <c r="E64" s="104"/>
+      <c r="F64" s="105"/>
+      <c r="G64" s="106"/>
       <c r="S64" s="72"/>
       <c r="T64" s="72"/>
       <c r="U64" s="72"/>
       <c r="V64" s="72"/>
     </row>
     <row r="65" spans="2:22" s="76" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="159"/>
-      <c r="C65" s="160"/>
-      <c r="D65" s="161"/>
-      <c r="E65" s="159"/>
-      <c r="F65" s="160"/>
-      <c r="G65" s="161"/>
+      <c r="B65" s="107"/>
+      <c r="C65" s="108"/>
+      <c r="D65" s="109"/>
+      <c r="E65" s="107"/>
+      <c r="F65" s="108"/>
+      <c r="G65" s="109"/>
       <c r="S65" s="72"/>
       <c r="T65" s="72"/>
       <c r="U65" s="72"/>
@@ -3335,29 +3335,29 @@
       <c r="B66" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="162"/>
-      <c r="D66" s="163"/>
+      <c r="C66" s="110"/>
+      <c r="D66" s="111"/>
       <c r="E66" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F66" s="162"/>
-      <c r="G66" s="163"/>
+      <c r="F66" s="110"/>
+      <c r="G66" s="111"/>
       <c r="S66" s="72"/>
       <c r="T66" s="72"/>
       <c r="U66" s="72"/>
       <c r="V66" s="72"/>
     </row>
     <row r="67" spans="2:22" s="76" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="153" t="s">
+      <c r="B67" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="C67" s="154"/>
-      <c r="D67" s="155"/>
-      <c r="E67" s="153" t="s">
+      <c r="C67" s="102"/>
+      <c r="D67" s="103"/>
+      <c r="E67" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="F67" s="154"/>
-      <c r="G67" s="155"/>
+      <c r="F67" s="102"/>
+      <c r="G67" s="103"/>
       <c r="S67" s="72"/>
       <c r="T67" s="72"/>
       <c r="U67" s="72"/>
@@ -6323,23 +6323,86 @@
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="N58:P59"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="K58:M59"/>
-    <mergeCell ref="K61:M61"/>
-    <mergeCell ref="H58:J59"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D65"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="C36:Q36"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K52"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="B38:R38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:E40"/>
+    <mergeCell ref="F39:G40"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:N40"/>
+    <mergeCell ref="O39:P40"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="C28:Q28"/>
+    <mergeCell ref="C32:Q32"/>
+    <mergeCell ref="C33:Q33"/>
+    <mergeCell ref="C34:Q34"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C35:Q35"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="C21:Q21"/>
+    <mergeCell ref="C22:Q22"/>
+    <mergeCell ref="C23:Q23"/>
+    <mergeCell ref="C24:Q24"/>
+    <mergeCell ref="C25:Q25"/>
+    <mergeCell ref="C26:Q26"/>
+    <mergeCell ref="C27:Q27"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:A54"/>
+    <mergeCell ref="R39:R40"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="C44:E44"/>
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="E63:G63"/>
     <mergeCell ref="E64:G65"/>
@@ -6364,86 +6427,23 @@
     <mergeCell ref="C47:E47"/>
     <mergeCell ref="F47:G47"/>
     <mergeCell ref="L47:N47"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="C21:Q21"/>
-    <mergeCell ref="C22:Q22"/>
-    <mergeCell ref="C23:Q23"/>
-    <mergeCell ref="C24:Q24"/>
-    <mergeCell ref="C25:Q25"/>
-    <mergeCell ref="C26:Q26"/>
-    <mergeCell ref="C27:Q27"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="C28:Q28"/>
-    <mergeCell ref="C32:Q32"/>
-    <mergeCell ref="C33:Q33"/>
-    <mergeCell ref="C34:Q34"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C35:Q35"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="C36:Q36"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H41:K52"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:A54"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="B38:R38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:E40"/>
-    <mergeCell ref="F39:G40"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:N40"/>
-    <mergeCell ref="O39:P40"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="R39:R40"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="N58:P59"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="K58:M59"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="H58:J59"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
